--- a/2021.12.18/YouTube_Rank1000.xlsx
+++ b/2021.12.18/YouTube_Rank1000.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>216억3224만</t>
+          <t>216억4703만</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>206억4055만</t>
+          <t>206억5310만</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>731개</t>
+          <t>733개</t>
         </is>
       </c>
     </row>
@@ -527,17 +527,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>6190만</t>
+          <t>6200만</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>142억4709만</t>
+          <t>142억6264만</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1,649개</t>
+          <t>1,652개</t>
         </is>
       </c>
     </row>
@@ -559,7 +559,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>231억5075만</t>
+          <t>231억6067만</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -613,12 +613,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>69억5197만</t>
+          <t>69억5388만</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3,431개</t>
+          <t>3,435개</t>
         </is>
       </c>
     </row>
@@ -640,12 +640,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>214억1761만</t>
+          <t>214억2273만</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>15,732개</t>
+          <t>15,736개</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>151억1694만</t>
+          <t>151억2619만</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -694,7 +694,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>140억8876만</t>
+          <t>140억9532만</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -721,7 +721,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>35억1106만</t>
+          <t>35억1168만</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>129억1182만</t>
+          <t>129억2499만</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>54,232개</t>
+          <t>54,253개</t>
         </is>
       </c>
     </row>
@@ -775,12 +775,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>55억4665만</t>
+          <t>55억5023만</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1,311개</t>
+          <t>1,312개</t>
         </is>
       </c>
     </row>
@@ -802,7 +802,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>88억6450만</t>
+          <t>88억6623만</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -829,7 +829,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>68억4957만</t>
+          <t>68억5161만</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -851,12 +851,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1260만</t>
+          <t>1270만</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>27억4451만</t>
+          <t>27억4983만</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>31억9306만</t>
+          <t>31억9720만</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>450만</t>
+          <t>452만</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -937,12 +937,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>83억0985만</t>
+          <t>83억1327만</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>8,374개</t>
+          <t>8,377개</t>
         </is>
       </c>
     </row>
@@ -964,12 +964,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>45억4032만</t>
+          <t>45억4165만</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1,922개</t>
+          <t>1,925개</t>
         </is>
       </c>
     </row>
@@ -991,12 +991,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>60억3473만</t>
+          <t>60억3808만</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2,406개</t>
+          <t>2,407개</t>
         </is>
       </c>
     </row>
@@ -1018,12 +1018,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>76억5047만</t>
+          <t>76억5242만</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>41,676개</t>
+          <t>41,714개</t>
         </is>
       </c>
     </row>
@@ -1045,12 +1045,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>39억6791만</t>
+          <t>39억6938만</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1,933개</t>
+          <t>1,934개</t>
         </is>
       </c>
     </row>
@@ -1072,12 +1072,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>41억8445만</t>
+          <t>41억8514만</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2,990개</t>
+          <t>2,994개</t>
         </is>
       </c>
     </row>
@@ -1099,12 +1099,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>40억6459만</t>
+          <t>40억6517만</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1,052개</t>
+          <t>1,053개</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>870만</t>
+          <t>871만</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>101억8310만</t>
+          <t>101억9176만</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1148,12 +1148,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>856만</t>
+          <t>857만</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>5억3771만</t>
+          <t>5억3890만</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1180,12 +1180,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>149억5547만</t>
+          <t>149억6045만</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>88,436개</t>
+          <t>88,461개</t>
         </is>
       </c>
     </row>
@@ -1202,17 +1202,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>849만</t>
+          <t>850만</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>25억3834만</t>
+          <t>25억4100만</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>371개</t>
+          <t>372개</t>
         </is>
       </c>
     </row>
@@ -1234,12 +1234,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>21억6771만</t>
+          <t>21억6829만</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>470개</t>
+          <t>471개</t>
         </is>
       </c>
     </row>
@@ -1256,17 +1256,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>835만</t>
+          <t>836만</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>5억9742만</t>
+          <t>5억9875만</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>915개</t>
+          <t>916개</t>
         </is>
       </c>
     </row>
@@ -1283,12 +1283,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>815만</t>
+          <t>816만</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>13억4259만</t>
+          <t>13억4464만</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1813,7 +1813,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SBS Entertainment</t>
+          <t>tvN drama</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1823,24 +1823,24 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>595만</t>
+          <t>597만</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>70억8350만</t>
+          <t>61억0077만</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>218,690개</t>
+          <t>38,172개</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>tvN drama</t>
+          <t>SBS Entertainment</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1850,17 +1850,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>594만</t>
+          <t>596만</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>60억6116만</t>
+          <t>71억1244만</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>37,884개</t>
+          <t>218,825개</t>
         </is>
       </c>
     </row>
@@ -1904,71 +1904,71 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>590만</t>
+          <t>591만</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>3억4438만</t>
+          <t>3억4528만</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>196개</t>
+          <t>197개</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>[장난감티비]TOYTV</t>
+          <t>SBS Drama</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>[키즈/어린이]</t>
+          <t>[TV/방송]</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>580만</t>
+          <t>581만</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>28억3721만</t>
+          <t>61억3623만</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1,529개</t>
+          <t>341,798개</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SBS Drama</t>
+          <t>[장난감티비]TOYTV</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>[TV/방송]</t>
+          <t>[키즈/어린이]</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>579만</t>
+          <t>580만</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>61억1900만</t>
+          <t>28억3721만</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>341,738개</t>
+          <t>1,529개</t>
         </is>
       </c>
     </row>
@@ -2363,17 +2363,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>472만</t>
+          <t>476만</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>9억4287만</t>
+          <t>9억5188만</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>294개</t>
+          <t>300개</t>
         </is>
       </c>
     </row>
@@ -2665,12 +2665,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>4억2852만</t>
+          <t>4억2935만</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>172개</t>
+          <t>173개</t>
         </is>
       </c>
     </row>
@@ -3119,17 +3119,17 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>379만</t>
+          <t>380만</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>12억1600만</t>
+          <t>12억2258만</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>452개</t>
+          <t>457개</t>
         </is>
       </c>
     </row>
@@ -3151,12 +3151,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>14억1795만</t>
+          <t>14억2096만</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>1,016개</t>
+          <t>1,019개</t>
         </is>
       </c>
     </row>
@@ -3907,7 +3907,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>14억0875만</t>
+          <t>14억1033만</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -4324,12 +4324,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>한세 HANSE</t>
+          <t>팬케이Pan K The Pancake Artist</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>[음식/요리/레시피]</t>
+          <t>[취미/라이프]</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -4339,39 +4339,39 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>3억8624만</t>
+          <t>8억3761만</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>573개</t>
+          <t>552개</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>팬케이Pan K The Pancake Artist</t>
+          <t>한세 HANSE</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>[취미/라이프]</t>
+          <t>[음식/요리/레시피]</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>274만</t>
+          <t>273만</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>8억3416만</t>
+          <t>3억8646만</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>551개</t>
+          <t>573개</t>
         </is>
       </c>
     </row>
@@ -4658,17 +4658,17 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>254만</t>
+          <t>253만</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>9억8740만</t>
+          <t>9억8875만</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>700개</t>
+          <t>709개</t>
         </is>
       </c>
     </row>
@@ -5095,12 +5095,12 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>3억1463만</t>
+          <t>3억1492만</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>179개</t>
+          <t>180개</t>
         </is>
       </c>
     </row>
@@ -6121,12 +6121,12 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>6억4177만</t>
+          <t>6억4642만</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>839개</t>
+          <t>842개</t>
         </is>
       </c>
     </row>
@@ -6553,12 +6553,12 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>3억0040만</t>
+          <t>3억0361만</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>983개</t>
+          <t>987개</t>
         </is>
       </c>
     </row>
@@ -6661,12 +6661,12 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>4억5489만</t>
+          <t>4억5511만</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>648개</t>
+          <t>649개</t>
         </is>
       </c>
     </row>
@@ -6754,39 +6754,39 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>ARIRANG K-POP</t>
+          <t>Imaginative Guy</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>[음악/댄스/가수]</t>
+          <t>[취미/라이프]</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>183만</t>
+          <t>184만</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>7억3644만</t>
+          <t>5억9229만</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>28,312개</t>
+          <t>118개</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Imaginative Guy</t>
+          <t>ARIRANG K-POP</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>[취미/라이프]</t>
+          <t>[음악/댄스/가수]</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -6796,12 +6796,12 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>5억9092만</t>
+          <t>7억3765만</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>118개</t>
+          <t>28,346개</t>
         </is>
       </c>
     </row>
@@ -7321,12 +7321,12 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>내셔널지오그래픽 - National Geographic Korea</t>
+          <t>THE BOYZ</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>[애완/반려동물]</t>
+          <t>[음악/댄스/가수]</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -7336,39 +7336,39 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>7억5481만</t>
+          <t>3억3717만</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>3,118개</t>
+          <t>540개</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>THE BOYZ</t>
+          <t>내셔널지오그래픽 - National Geographic Korea</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>[음악/댄스/가수]</t>
+          <t>[애완/반려동물]</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>171만</t>
+          <t>172만</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>3억3493만</t>
+          <t>7억5481만</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>537개</t>
+          <t>3,118개</t>
         </is>
       </c>
     </row>
@@ -7402,39 +7402,39 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>양띵 유튜브</t>
+          <t>지무비 : G Movie</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>[게임]</t>
+          <t>[영화/만화/애니]</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>169만</t>
+          <t>170만</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>19억2103만</t>
+          <t>5억8840만</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>7,441개</t>
+          <t>274개</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>대문밖장덕대</t>
+          <t>양띵 유튜브</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>[키즈/어린이]</t>
+          <t>[게임]</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -7444,24 +7444,24 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>8억1094만</t>
+          <t>19억2103만</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>1,656개</t>
+          <t>7,441개</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>슈앤트리 SHU AND TREE</t>
+          <t>대문밖장덕대</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>[애완/반려동물]</t>
+          <t>[키즈/어린이]</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -7471,24 +7471,24 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>3억7154만</t>
+          <t>8억1094만</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>384개</t>
+          <t>1,656개</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>지무비 : G Movie</t>
+          <t>슈앤트리 SHU AND TREE</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>[영화/만화/애니]</t>
+          <t>[애완/반려동물]</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -7498,12 +7498,12 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>5억9082만</t>
+          <t>3억7154만</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>272개</t>
+          <t>384개</t>
         </is>
       </c>
     </row>
@@ -8551,7 +8551,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>4억3995만</t>
+          <t>4억4005만</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
@@ -8767,7 +8767,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>2억0097만</t>
+          <t>2억0135만</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
@@ -8821,7 +8821,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>8억6175만</t>
+          <t>8억6602만</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
@@ -8860,12 +8860,12 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>KBS HUMAN: 뭉클티비</t>
+          <t>소맥거핀</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>[TV/방송]</t>
+          <t>[게임]</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -8875,19 +8875,19 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>7억7171만</t>
+          <t>4억1296만</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>3,973개</t>
+          <t>192개</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>안구정화TV, Your Korean Friend</t>
+          <t>KBS HUMAN: 뭉클티비</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -8902,51 +8902,51 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>1억2262만</t>
+          <t>7억7171만</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>173개</t>
+          <t>3,973개</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Chuther츄더[문에스더]</t>
+          <t>안구정화TV, Your Korean Friend</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>[음악/댄스/가수]</t>
+          <t>[TV/방송]</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>145만</t>
+          <t>146만</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>2억0829만</t>
+          <t>1억2262만</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>153개</t>
+          <t>173개</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>MKTV 김미경TV</t>
+          <t>Chuther츄더[문에스더]</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>[TV/방송]</t>
+          <t>[음악/댄스/가수]</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -8956,51 +8956,51 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>2억7627만</t>
+          <t>2억0829만</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>1,687개</t>
+          <t>153개</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>티디키즈 (인기 동요・동화)</t>
+          <t>MKTV 김미경TV</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>[키즈/어린이]</t>
+          <t>[TV/방송]</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>144만</t>
+          <t>145만</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>9억3417만</t>
+          <t>2억7627만</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>423개</t>
+          <t>1,687개</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>동네놈들</t>
+          <t>티디키즈 (인기 동요・동화)</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>[TV/방송]</t>
+          <t>[키즈/어린이]</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -9010,24 +9010,24 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>3억2655만</t>
+          <t>9억3417만</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>303개</t>
+          <t>423개</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>사물궁이 잡학지식</t>
+          <t>동네놈들</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>[교육/강의]</t>
+          <t>[TV/방송]</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -9037,24 +9037,24 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>2억3845만</t>
+          <t>3억2655만</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>297개</t>
+          <t>303개</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>ARIKITCHEN (아리키친)</t>
+          <t>사물궁이 잡학지식</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>[음식/요리/레시피]</t>
+          <t>[교육/강의]</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -9064,39 +9064,39 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>3억5206만</t>
+          <t>2억3845만</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>460개</t>
+          <t>297개</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>소맥거핀</t>
+          <t>ARIKITCHEN (아리키친)</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>[게임]</t>
+          <t>[음식/요리/레시피]</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>143만</t>
+          <t>144만</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>4억0131만</t>
+          <t>3억5206만</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>190개</t>
+          <t>460개</t>
         </is>
       </c>
     </row>
@@ -9184,12 +9184,12 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>신의한수</t>
+          <t>jannahkorea 잔나코리아</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>[뉴스/정치/사회]</t>
+          <t>[교육/강의]</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -9199,19 +9199,19 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>11억6591만</t>
+          <t>1억3942만</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>8,772개</t>
+          <t>431개</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>KBS News</t>
+          <t>신의한수</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -9221,29 +9221,29 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>141만</t>
+          <t>142만</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>20억5393만</t>
+          <t>11억6591만</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>188,091개</t>
+          <t>8,772개</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>jannahkorea 잔나코리아</t>
+          <t>KBS News</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>[교육/강의]</t>
+          <t>[뉴스/정치/사회]</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -9253,24 +9253,24 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>1억3712만</t>
+          <t>20억5393만</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>430개</t>
+          <t>188,091개</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>엠브로 MBRO</t>
+          <t>깨비키즈 [KEBIKIDS]</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>[음식/요리/레시피]</t>
+          <t>[키즈/어린이]</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -9280,51 +9280,51 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15억3379만</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>0개</t>
+          <t>1,780개</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>급식왕</t>
+          <t>엠브로 MBRO</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>[BJ/인물/연예인]</t>
+          <t>[음식/요리/레시피]</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>140만</t>
+          <t>141만</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>16억3888만</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>684개</t>
+          <t>0개</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>깨비키즈 [KEBIKIDS]</t>
+          <t>급식왕</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>[키즈/어린이]</t>
+          <t>[BJ/인물/연예인]</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -9334,12 +9334,12 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>15억2569만</t>
+          <t>16억3888만</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>1,776개</t>
+          <t>684개</t>
         </is>
       </c>
     </row>
@@ -9361,7 +9361,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>2억0615만</t>
+          <t>2억0635만</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
@@ -9481,12 +9481,12 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Solfa</t>
+          <t>체인지그라운드</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>[TV/방송]</t>
+          <t>[교육/강의]</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -9496,51 +9496,51 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>2억3097만</t>
+          <t>2억6555만</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>50개</t>
+          <t>3,339개</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>이 남자의 cook</t>
+          <t>Solfa</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>[음식/요리/레시피]</t>
+          <t>[TV/방송]</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>137만</t>
+          <t>138만</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>2억5507만</t>
+          <t>2억3097만</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>575개</t>
+          <t>50개</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>낄낄상회</t>
+          <t>이 남자의 cook</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>[취미/라이프]</t>
+          <t>[음식/요리/레시피]</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -9550,24 +9550,24 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>3억7365만</t>
+          <t>2억5507만</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>278개</t>
+          <t>575개</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>산적TV 밥굽남</t>
+          <t>낄낄상회</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>[음식/요리/레시피]</t>
+          <t>[취미/라이프]</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -9577,24 +9577,24 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>2억9556만</t>
+          <t>3억7365만</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>568개</t>
+          <t>278개</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>체인지그라운드</t>
+          <t>산적TV 밥굽남</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>[교육/강의]</t>
+          <t>[음식/요리/레시피]</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -9604,12 +9604,12 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>2억6320만</t>
+          <t>2억9660만</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>3,323개</t>
+          <t>569개</t>
         </is>
       </c>
     </row>
@@ -9685,12 +9685,12 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>5억5877만</t>
+          <t>5억6229만</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>997개</t>
+          <t>1,009개</t>
         </is>
       </c>
     </row>
@@ -9712,12 +9712,12 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>4억4710만</t>
+          <t>4억4916만</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>402개</t>
+          <t>404개</t>
         </is>
       </c>
     </row>
@@ -10009,12 +10009,12 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>1억1771만</t>
+          <t>1억1847만</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>76개</t>
+          <t>77개</t>
         </is>
       </c>
     </row>
@@ -10480,12 +10480,12 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>강형욱의 보듬TV - Dog Trainer Kang</t>
+          <t>오킹TV</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>[애완/반려동물]</t>
+          <t>[TV/방송]</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -10495,51 +10495,51 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>2억3273만</t>
+          <t>5억2568만</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>703개</t>
+          <t>1,366개</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>lamuqe</t>
+          <t>강형욱의 보듬TV - Dog Trainer Kang</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>[패션/미용]</t>
+          <t>[애완/반려동물]</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>127만</t>
+          <t>128만</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>1억1891만</t>
+          <t>2억3273만</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>279개</t>
+          <t>703개</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>파뿌리</t>
+          <t>lamuqe</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>[음식/요리/레시피]</t>
+          <t>[패션/미용]</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -10549,24 +10549,24 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>11억6689만</t>
+          <t>1억1891만</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>1,393개</t>
+          <t>279개</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>딩고 스토리 / dingo story</t>
+          <t>파뿌리</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>[TV/방송]</t>
+          <t>[음식/요리/레시피]</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -10576,51 +10576,51 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>2억8628만</t>
+          <t>11억6689만</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>333개</t>
+          <t>1,393개</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>딩고 스토리 / dingo story</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>[BJ/인물/연예인]</t>
+          <t>[TV/방송]</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>126만</t>
+          <t>127만</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>11억6084만</t>
+          <t>2억8628만</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>584개</t>
+          <t>333개</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>RealVIXX</t>
+          <t>임영웅</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>[음악/댄스/가수]</t>
+          <t>[BJ/인물/연예인]</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -10630,24 +10630,24 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>3억7353만</t>
+          <t>11억6084만</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>730개</t>
+          <t>584개</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>오킹TV</t>
+          <t>RealVIXX</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>[TV/방송]</t>
+          <t>[음악/댄스/가수]</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -10657,12 +10657,12 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>5억1876만</t>
+          <t>3억7353만</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>1,358개</t>
+          <t>730개</t>
         </is>
       </c>
     </row>
@@ -10981,7 +10981,7 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>1억6598만</t>
+          <t>1억6629만</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
@@ -11251,7 +11251,7 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>1억1741만</t>
+          <t>1억1745만</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
@@ -11359,7 +11359,7 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>4억1707만</t>
+          <t>4억1729만</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
@@ -11386,12 +11386,12 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>3억6215만</t>
+          <t>3억6580만</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>1,287개</t>
+          <t>1,292개</t>
         </is>
       </c>
     </row>
@@ -11494,12 +11494,12 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>3억9761만</t>
+          <t>3억9902만</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>532개</t>
+          <t>535개</t>
         </is>
       </c>
     </row>
@@ -11602,12 +11602,12 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>9137만</t>
+          <t>9162만</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>370개</t>
+          <t>371개</t>
         </is>
       </c>
     </row>
@@ -11656,12 +11656,12 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>1억7816만</t>
+          <t>1억7849만</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>215개</t>
+          <t>216개</t>
         </is>
       </c>
     </row>
@@ -12235,12 +12235,12 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>힙으뜸</t>
+          <t>1분미만</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>[스포츠/운동]</t>
+          <t>[미분류]</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -12250,24 +12250,24 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>1억9871만</t>
+          <t>2억4695만</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>327개</t>
+          <t>150개</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>BenDeen</t>
+          <t>힙으뜸</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>[음식/요리/레시피]</t>
+          <t>[스포츠/운동]</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -12277,24 +12277,24 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>1억4781만</t>
+          <t>1억9871만</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>323개</t>
+          <t>327개</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>kiu기우쌤</t>
+          <t>BenDeen</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>[패션/미용]</t>
+          <t>[음식/요리/레시피]</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -12304,24 +12304,24 @@
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>3억2487만</t>
+          <t>1억4781만</t>
         </is>
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>346개</t>
+          <t>323개</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>rappeler하쁠리</t>
+          <t>kiu기우쌤</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>[취미/라이프]</t>
+          <t>[패션/미용]</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -12331,24 +12331,24 @@
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>4억3787만</t>
+          <t>3억2487만</t>
         </is>
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>698개</t>
+          <t>346개</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>릴카</t>
+          <t>rappeler하쁠리</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>[게임]</t>
+          <t>[취미/라이프]</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -12358,51 +12358,51 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>4억0807만</t>
+          <t>4억3787만</t>
         </is>
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>938개</t>
+          <t>698개</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>헌터퐝</t>
+          <t>릴카</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>[BJ/인물/연예인]</t>
+          <t>[게임]</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>109만</t>
+          <t>110만</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>2억3872만</t>
+          <t>4억0807만</t>
         </is>
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>286개</t>
+          <t>938개</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>[삼성증권] Samsung POP</t>
+          <t>헌터퐝</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>[주식/경제/부동산]</t>
+          <t>[BJ/인물/연예인]</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -12412,24 +12412,24 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>9392만</t>
+          <t>2억3872만</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>1,079개</t>
+          <t>286개</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>1분미만</t>
+          <t>[삼성증권] Samsung POP</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>[미분류]</t>
+          <t>[주식/경제/부동산]</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -12439,12 +12439,12 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>2억4456만</t>
+          <t>9392만</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>148개</t>
+          <t>1,079개</t>
         </is>
       </c>
     </row>
@@ -12601,7 +12601,7 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>2억5915만</t>
+          <t>2억5943만</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
@@ -12898,12 +12898,12 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>7억6082만</t>
+          <t>7억6265만</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>2,386개</t>
+          <t>2,397개</t>
         </is>
       </c>
     </row>
@@ -12964,12 +12964,12 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>빠니보틀 Pani Bottle</t>
+          <t>우와한 비디오</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>[국내/해외/여행]</t>
+          <t>[TV/방송]</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -12979,24 +12979,24 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>2억1251만</t>
+          <t>11억9414만</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>238개</t>
+          <t>1,296개</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>비디오머그 - VIDEOMUG</t>
+          <t>빠니보틀 Pani Bottle</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>[뉴스/정치/사회]</t>
+          <t>[국내/해외/여행]</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -13006,24 +13006,24 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>17억4684만</t>
+          <t>2억1251만</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>5,220개</t>
+          <t>238개</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>드림텔러(DreamTeller)</t>
+          <t>비디오머그 - VIDEOMUG</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>[영화/만화/애니]</t>
+          <t>[뉴스/정치/사회]</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -13033,19 +13033,19 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>1억3447만</t>
+          <t>17억4684만</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>134개</t>
+          <t>5,220개</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>B Man 삐맨</t>
+          <t>드림텔러(DreamTeller)</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -13060,24 +13060,24 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>5억2394만</t>
+          <t>1억3447만</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>559개</t>
+          <t>134개</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>핫도그TV</t>
+          <t>B Man 삐맨</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>[음식/요리/레시피]</t>
+          <t>[영화/만화/애니]</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -13087,24 +13087,24 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>7억8322만</t>
+          <t>5억2394만</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>942개</t>
+          <t>559개</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>이슈텔러 issueTeller</t>
+          <t>핫도그TV</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>[TV/방송]</t>
+          <t>[음식/요리/레시피]</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -13114,19 +13114,19 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>4억6869만</t>
+          <t>7억8322만</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>598개</t>
+          <t>942개</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>우와한 비디오</t>
+          <t>이슈텔러 issueTeller</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -13136,17 +13136,17 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>105만</t>
+          <t>106만</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>11억8909만</t>
+          <t>4억6869만</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>1,290개</t>
+          <t>598개</t>
         </is>
       </c>
     </row>
@@ -13546,12 +13546,12 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>2억8935만</t>
+          <t>2억9140만</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>297개</t>
+          <t>298개</t>
         </is>
       </c>
     </row>
@@ -13693,12 +13693,12 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>기리TV</t>
+          <t>마시따 MASITTA</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>[게임]</t>
+          <t>[키즈/어린이]</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -13708,24 +13708,24 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>10억3177만</t>
+          <t>6억0035만</t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>2,586개</t>
+          <t>221개</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>공부의신 강성태</t>
+          <t>기리TV</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>[교육/강의]</t>
+          <t>[게임]</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -13735,24 +13735,24 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>2억8089만</t>
+          <t>10억3177만</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>2,695개</t>
+          <t>2,586개</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>유준호</t>
+          <t>공부의신 강성태</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>[BJ/인물/연예인]</t>
+          <t>[교육/강의]</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -13762,24 +13762,24 @@
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>4억4876만</t>
+          <t>2억8089만</t>
         </is>
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>1,280개</t>
+          <t>2,695개</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>킴성태TV</t>
+          <t>유준호</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>[게임]</t>
+          <t>[BJ/인물/연예인]</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -13789,24 +13789,24 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>7억1006만</t>
+          <t>4억4876만</t>
         </is>
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>1,661개</t>
+          <t>1,280개</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>소근커플 S.K.Couple</t>
+          <t>킴성태TV</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>[BJ/인물/연예인]</t>
+          <t>[게임]</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -13816,51 +13816,51 @@
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>3억6548만</t>
+          <t>7억1006만</t>
         </is>
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>417개</t>
+          <t>1,661개</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>JoyKids</t>
+          <t>소근커플 S.K.Couple</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>[키즈/어린이]</t>
+          <t>[BJ/인물/연예인]</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>100만</t>
+          <t>101만</t>
         </is>
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>5억6719만</t>
+          <t>3억6592만</t>
         </is>
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>162개</t>
+          <t>418개</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>KIM HYUN JOONG.official</t>
+          <t>JoyKids</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>[음악/댄스/가수]</t>
+          <t>[키즈/어린이]</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -13870,24 +13870,24 @@
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>1억3169만</t>
+          <t>5억6719만</t>
         </is>
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>344개</t>
+          <t>162개</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>유병재</t>
+          <t>KIM HYUN JOONG.official</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>[TV/방송]</t>
+          <t>[음악/댄스/가수]</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -13897,24 +13897,24 @@
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>1억5959만</t>
+          <t>1억3169만</t>
         </is>
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>154개</t>
+          <t>344개</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>마시따 MASITTA</t>
+          <t>유병재</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>[키즈/어린이]</t>
+          <t>[TV/방송]</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -13924,12 +13924,12 @@
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>5억9737만</t>
+          <t>1억5959만</t>
         </is>
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>221개</t>
+          <t>154개</t>
         </is>
       </c>
     </row>
@@ -14221,12 +14221,12 @@
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>8억2666만</t>
+          <t>8억2915만</t>
         </is>
       </c>
       <c r="E511" t="inlineStr">
         <is>
-          <t>2,282개</t>
+          <t>2,289개</t>
         </is>
       </c>
     </row>
@@ -14545,7 +14545,7 @@
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>3억5632만</t>
+          <t>3억5640만</t>
         </is>
       </c>
       <c r="E523" t="inlineStr">
@@ -14719,12 +14719,12 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>SM C&amp;C STUDIO</t>
+          <t>핏블리 FITVELY</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>[회사/오피셜]</t>
+          <t>[미분류]</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -14734,24 +14734,24 @@
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>1억1994만</t>
+          <t>2억3120만</t>
         </is>
       </c>
       <c r="E530" t="inlineStr">
         <is>
-          <t>743개</t>
+          <t>638개</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>핏블리 FITVELY</t>
+          <t>SM C&amp;C STUDIO</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>[미분류]</t>
+          <t>[회사/오피셜]</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -14761,12 +14761,12 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>2억2956만</t>
+          <t>1억1994만</t>
         </is>
       </c>
       <c r="E531" t="inlineStr">
         <is>
-          <t>632개</t>
+          <t>743개</t>
         </is>
       </c>
     </row>
@@ -14854,12 +14854,12 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>STAYC</t>
+          <t>하하 PD HAHA PD</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>[미분류]</t>
+          <t>[BJ/인물/연예인]</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
@@ -14869,51 +14869,51 @@
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>2억5063만</t>
+          <t>6258만</t>
         </is>
       </c>
       <c r="E535" t="inlineStr">
         <is>
-          <t>142개</t>
+          <t>115개</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>WatchcarTV</t>
+          <t>STAYC</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>[영화/만화/애니]</t>
+          <t>[미분류]</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>93만</t>
+          <t>94만</t>
         </is>
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>4억4132만</t>
+          <t>2억5063만</t>
         </is>
       </c>
       <c r="E536" t="inlineStr">
         <is>
-          <t>201개</t>
+          <t>142개</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>하하 PD HAHA PD</t>
+          <t>WatchcarTV</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>[BJ/인물/연예인]</t>
+          <t>[영화/만화/애니]</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -14923,12 +14923,12 @@
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>5946만</t>
+          <t>4억4132만</t>
         </is>
       </c>
       <c r="E537" t="inlineStr">
         <is>
-          <t>111개</t>
+          <t>201개</t>
         </is>
       </c>
     </row>
@@ -14977,12 +14977,12 @@
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>5억1194만</t>
+          <t>5억1354만</t>
         </is>
       </c>
       <c r="E539" t="inlineStr">
         <is>
-          <t>1,117개</t>
+          <t>1,122개</t>
         </is>
       </c>
     </row>
@@ -15112,12 +15112,12 @@
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>9억3247만</t>
+          <t>9억3389만</t>
         </is>
       </c>
       <c r="E544" t="inlineStr">
         <is>
-          <t>3,548개</t>
+          <t>3,551개</t>
         </is>
       </c>
     </row>
@@ -15193,12 +15193,12 @@
       </c>
       <c r="D547" t="inlineStr">
         <is>
-          <t>6억8066만</t>
+          <t>6억8311만</t>
         </is>
       </c>
       <c r="E547" t="inlineStr">
         <is>
-          <t>3,957개</t>
+          <t>3,967개</t>
         </is>
       </c>
     </row>
@@ -15355,7 +15355,7 @@
       </c>
       <c r="D553" t="inlineStr">
         <is>
-          <t>1억8691만</t>
+          <t>1억8736만</t>
         </is>
       </c>
       <c r="E553" t="inlineStr">
@@ -15583,39 +15583,39 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>신인균의 국방TV</t>
+          <t>Netflix Korea 넷플릭스 코리아</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>[뉴스/정치/사회]</t>
+          <t>[영화/만화/애니]</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>89만</t>
+          <t>90만</t>
         </is>
       </c>
       <c r="D562" t="inlineStr">
         <is>
-          <t>4억4842만</t>
+          <t>2억5814만</t>
         </is>
       </c>
       <c r="E562" t="inlineStr">
         <is>
-          <t>1,762개</t>
+          <t>1,577개</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>의학채널 비온뒤</t>
+          <t>신인균의 국방TV</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>[IT/기술/컴퓨터]</t>
+          <t>[뉴스/정치/사회]</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
@@ -15625,24 +15625,24 @@
       </c>
       <c r="D563" t="inlineStr">
         <is>
-          <t>2억1203만</t>
+          <t>4억4842만</t>
         </is>
       </c>
       <c r="E563" t="inlineStr">
         <is>
-          <t>5,001개</t>
+          <t>1,762개</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>윤쨔미 YoonCharmi</t>
+          <t>의학채널 비온뒤</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>[패션/미용]</t>
+          <t>[IT/기술/컴퓨터]</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
@@ -15652,24 +15652,24 @@
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>2억3708만</t>
+          <t>2억1203만</t>
         </is>
       </c>
       <c r="E564" t="inlineStr">
         <is>
-          <t>332개</t>
+          <t>5,001개</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>(MUTUBE)와꾸대장봉준</t>
+          <t>윤쨔미 YoonCharmi</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>[BJ/인물/연예인]</t>
+          <t>[패션/미용]</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
@@ -15679,24 +15679,24 @@
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t>8억0893만</t>
+          <t>2억3708만</t>
         </is>
       </c>
       <c r="E565" t="inlineStr">
         <is>
-          <t>7,654개</t>
+          <t>332개</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Netflix Korea 넷플릭스 코리아</t>
+          <t>(MUTUBE)와꾸대장봉준</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>[영화/만화/애니]</t>
+          <t>[BJ/인물/연예인]</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
@@ -15706,12 +15706,12 @@
       </c>
       <c r="D566" t="inlineStr">
         <is>
-          <t>2억5346만</t>
+          <t>8억0893만</t>
         </is>
       </c>
       <c r="E566" t="inlineStr">
         <is>
-          <t>1,556개</t>
+          <t>7,654개</t>
         </is>
       </c>
     </row>
@@ -16327,12 +16327,12 @@
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>5억4057만</t>
+          <t>5억4267만</t>
         </is>
       </c>
       <c r="E589" t="inlineStr">
         <is>
-          <t>1,906개</t>
+          <t>1,915개</t>
         </is>
       </c>
     </row>
@@ -16354,7 +16354,7 @@
       </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t>2억0786만</t>
+          <t>2억0850만</t>
         </is>
       </c>
       <c r="E590" t="inlineStr">
@@ -16420,12 +16420,12 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>TSENT2008</t>
+          <t>고고다이노 - GOGO DINO</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>[음악/댄스/가수]</t>
+          <t>[키즈/어린이]</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -16435,24 +16435,24 @@
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>3억8377만</t>
+          <t>6억3351만</t>
         </is>
       </c>
       <c r="E593" t="inlineStr">
         <is>
-          <t>445개</t>
+          <t>845개</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>고고다이노 - GOGO DINO</t>
+          <t>TSENT2008</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>[키즈/어린이]</t>
+          <t>[음악/댄스/가수]</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -16462,12 +16462,12 @@
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>6억3172만</t>
+          <t>3억8377만</t>
         </is>
       </c>
       <c r="E594" t="inlineStr">
         <is>
-          <t>844개</t>
+          <t>445개</t>
         </is>
       </c>
     </row>
@@ -16624,12 +16624,12 @@
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>3억3845만</t>
+          <t>3억3910만</t>
         </is>
       </c>
       <c r="E600" t="inlineStr">
         <is>
-          <t>346개</t>
+          <t>347개</t>
         </is>
       </c>
     </row>
@@ -16771,39 +16771,39 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>임한올 Hanol Rim</t>
+          <t>빽능 - 스브스 옛날 예능</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>[미분류]</t>
+          <t>[뉴스/정치/사회]</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>82만</t>
+          <t>83만</t>
         </is>
       </c>
       <c r="D606" t="inlineStr">
         <is>
-          <t>9547만</t>
+          <t>9억1869만</t>
         </is>
       </c>
       <c r="E606" t="inlineStr">
         <is>
-          <t>146개</t>
+          <t>3,084개</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>PARK JIHOON Official</t>
+          <t>임한올 Hanol Rim</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>[음악/댄스/가수]</t>
+          <t>[미분류]</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
@@ -16813,24 +16813,24 @@
       </c>
       <c r="D607" t="inlineStr">
         <is>
-          <t>4874만</t>
+          <t>9581만</t>
         </is>
       </c>
       <c r="E607" t="inlineStr">
         <is>
-          <t>212개</t>
+          <t>147개</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>빽능 - 스브스 옛날 예능</t>
+          <t>PARK JIHOON Official</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>[뉴스/정치/사회]</t>
+          <t>[음악/댄스/가수]</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
@@ -16840,12 +16840,12 @@
       </c>
       <c r="D608" t="inlineStr">
         <is>
-          <t>8억2851만</t>
+          <t>4874만</t>
         </is>
       </c>
       <c r="E608" t="inlineStr">
         <is>
-          <t>2,990개</t>
+          <t>212개</t>
         </is>
       </c>
     </row>
@@ -16948,7 +16948,7 @@
       </c>
       <c r="D612" t="inlineStr">
         <is>
-          <t>1억6073만</t>
+          <t>1억6079만</t>
         </is>
       </c>
       <c r="E612" t="inlineStr">
@@ -17149,12 +17149,12 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>이라이라경 ravely</t>
+          <t>UNA 유나</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>[TV/방송]</t>
+          <t>[패션/미용]</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
@@ -17164,24 +17164,24 @@
       </c>
       <c r="D620" t="inlineStr">
         <is>
-          <t>2억4310만</t>
+          <t>6684만</t>
         </is>
       </c>
       <c r="E620" t="inlineStr">
         <is>
-          <t>362개</t>
+          <t>160개</t>
         </is>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>UNA 유나</t>
+          <t>이라이라경 ravely</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>[패션/미용]</t>
+          <t>[TV/방송]</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
@@ -17191,12 +17191,12 @@
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>6659만</t>
+          <t>2억4310만</t>
         </is>
       </c>
       <c r="E621" t="inlineStr">
         <is>
-          <t>158개</t>
+          <t>362개</t>
         </is>
       </c>
     </row>
@@ -17218,24 +17218,24 @@
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>5억1500만</t>
+          <t>5억1740만</t>
         </is>
       </c>
       <c r="E622" t="inlineStr">
         <is>
-          <t>723개</t>
+          <t>729개</t>
         </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>김왼팔</t>
+          <t>• m i n a m o c h i •</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>[게임]</t>
+          <t>[음악/댄스/가수]</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
@@ -17245,24 +17245,24 @@
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>5억2031만</t>
+          <t>3억5849만</t>
         </is>
       </c>
       <c r="E623" t="inlineStr">
         <is>
-          <t>2,236개</t>
+          <t>118개</t>
         </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>키즐 kizzle</t>
+          <t>김왼팔</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>[미분류]</t>
+          <t>[게임]</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
@@ -17272,24 +17272,24 @@
       </c>
       <c r="D624" t="inlineStr">
         <is>
-          <t>2억1064만</t>
+          <t>5억2031만</t>
         </is>
       </c>
       <c r="E624" t="inlineStr">
         <is>
-          <t>134개</t>
+          <t>2,236개</t>
         </is>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>• m i n a m o c h i •</t>
+          <t>키즐 kizzle</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>[음악/댄스/가수]</t>
+          <t>[미분류]</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
@@ -17299,12 +17299,12 @@
       </c>
       <c r="D625" t="inlineStr">
         <is>
-          <t>3억5765만</t>
+          <t>2억1064만</t>
         </is>
       </c>
       <c r="E625" t="inlineStr">
         <is>
-          <t>118개</t>
+          <t>134개</t>
         </is>
       </c>
     </row>
@@ -17338,12 +17338,12 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>함께해요 맛나요리</t>
+          <t>KBS 교양</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>[미분류]</t>
+          <t>[뉴스/정치/사회]</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
@@ -17353,24 +17353,24 @@
       </c>
       <c r="D627" t="inlineStr">
         <is>
-          <t>2억0283만</t>
+          <t>6억4852만</t>
         </is>
       </c>
       <c r="E627" t="inlineStr">
         <is>
-          <t>533개</t>
+          <t>67,354개</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>함께해요 맛나요리</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>[게임]</t>
+          <t>[미분류]</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
@@ -17380,24 +17380,24 @@
       </c>
       <c r="D628" t="inlineStr">
         <is>
-          <t>2억3324만</t>
+          <t>2억0283만</t>
         </is>
       </c>
       <c r="E628" t="inlineStr">
         <is>
-          <t>2,595개</t>
+          <t>533개</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>리모콘 by iHQ</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>[TV/방송]</t>
+          <t>[게임]</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
@@ -17407,24 +17407,24 @@
       </c>
       <c r="D629" t="inlineStr">
         <is>
-          <t>7억0651만</t>
+          <t>2억3324만</t>
         </is>
       </c>
       <c r="E629" t="inlineStr">
         <is>
-          <t>5,479개</t>
+          <t>2,595개</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>메카드 - MECARD OFFICIAL</t>
+          <t>리모콘 by iHQ</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>[키즈/어린이]</t>
+          <t>[TV/방송]</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
@@ -17434,24 +17434,24 @@
       </c>
       <c r="D630" t="inlineStr">
         <is>
-          <t>6억4313만</t>
+          <t>7억0651만</t>
         </is>
       </c>
       <c r="E630" t="inlineStr">
         <is>
-          <t>1,239개</t>
+          <t>5,479개</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>E트렌드</t>
+          <t>메카드 - MECARD OFFICIAL</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>[주식/경제/부동산]</t>
+          <t>[키즈/어린이]</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
@@ -17461,24 +17461,24 @@
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>1억0231만</t>
+          <t>6억4313만</t>
         </is>
       </c>
       <c r="E631" t="inlineStr">
         <is>
-          <t>1,802개</t>
+          <t>1,239개</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>연합뉴스 통통컬처</t>
+          <t>E트렌드</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>[TV/방송]</t>
+          <t>[주식/경제/부동산]</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
@@ -17488,24 +17488,24 @@
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>5억4278만</t>
+          <t>1억0231만</t>
         </is>
       </c>
       <c r="E632" t="inlineStr">
         <is>
-          <t>11,397개</t>
+          <t>1,802개</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>THE BOB - 더 밥 스튜디오</t>
+          <t>연합뉴스 통통컬처</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>[음식/요리/레시피]</t>
+          <t>[TV/방송]</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
@@ -17515,24 +17515,24 @@
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>8250만</t>
+          <t>5억4278만</t>
         </is>
       </c>
       <c r="E633" t="inlineStr">
         <is>
-          <t>827개</t>
+          <t>11,397개</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>CL</t>
+          <t>THE BOB - 더 밥 스튜디오</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>[음악/댄스/가수]</t>
+          <t>[음식/요리/레시피]</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
@@ -17542,51 +17542,51 @@
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t>5990만</t>
+          <t>8250만</t>
         </is>
       </c>
       <c r="E634" t="inlineStr">
         <is>
-          <t>5개</t>
+          <t>827개</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>TOP MEDIA</t>
+          <t>CL</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>[미분류]</t>
+          <t>[음악/댄스/가수]</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>80만</t>
+          <t>81만</t>
         </is>
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t>1억7869만</t>
+          <t>5990만</t>
         </is>
       </c>
       <c r="E635" t="inlineStr">
         <is>
-          <t>516개</t>
+          <t>5개</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>람다람</t>
+          <t>TOP MEDIA</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>[영화/만화/애니]</t>
+          <t>[미분류]</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
@@ -17596,24 +17596,24 @@
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t>9253만</t>
+          <t>1억7869만</t>
         </is>
       </c>
       <c r="E636" t="inlineStr">
         <is>
-          <t>76개</t>
+          <t>516개</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>이리오너라</t>
+          <t>람다람</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>[미분류]</t>
+          <t>[영화/만화/애니]</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
@@ -17623,24 +17623,24 @@
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t>5652만</t>
+          <t>9253만</t>
         </is>
       </c>
       <c r="E637" t="inlineStr">
         <is>
-          <t>1,634개</t>
+          <t>76개</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>OFFICIAL EPIK HIGH</t>
+          <t>이리오너라</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>[음악/댄스/가수]</t>
+          <t>[미분류]</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
@@ -17650,24 +17650,24 @@
       </c>
       <c r="D638" t="inlineStr">
         <is>
-          <t>2억5889만</t>
+          <t>5652만</t>
         </is>
       </c>
       <c r="E638" t="inlineStr">
         <is>
-          <t>214개</t>
+          <t>1,634개</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>한국경제TV</t>
+          <t>OFFICIAL EPIK HIGH</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>[뉴스/정치/사회]</t>
+          <t>[음악/댄스/가수]</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
@@ -17677,19 +17677,19 @@
       </c>
       <c r="D639" t="inlineStr">
         <is>
-          <t>2억3293만</t>
+          <t>2억5889만</t>
         </is>
       </c>
       <c r="E639" t="inlineStr">
         <is>
-          <t>50,735개</t>
+          <t>214개</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>KBS 교양</t>
+          <t>한국경제TV</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
@@ -17704,12 +17704,12 @@
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>6억4281만</t>
+          <t>2억3293만</t>
         </is>
       </c>
       <c r="E640" t="inlineStr">
         <is>
-          <t>67,320개</t>
+          <t>50,735개</t>
         </is>
       </c>
     </row>
@@ -18283,12 +18283,12 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>뭅뭅</t>
+          <t>탁주 TV</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>[영화/만화/애니]</t>
+          <t>[게임]</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
@@ -18298,24 +18298,24 @@
       </c>
       <c r="D662" t="inlineStr">
         <is>
-          <t>3억5308만</t>
+          <t>17억0397만</t>
         </is>
       </c>
       <c r="E662" t="inlineStr">
         <is>
-          <t>3,153개</t>
+          <t>2,106개</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>옐언니</t>
+          <t>뭅뭅</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>[TV/방송]</t>
+          <t>[영화/만화/애니]</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
@@ -18325,24 +18325,24 @@
       </c>
       <c r="D663" t="inlineStr">
         <is>
-          <t>2억0391만</t>
+          <t>3억5308만</t>
         </is>
       </c>
       <c r="E663" t="inlineStr">
         <is>
-          <t>348개</t>
+          <t>3,153개</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>탁주 TV</t>
+          <t>옐언니</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>[게임]</t>
+          <t>[TV/방송]</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
@@ -18352,12 +18352,12 @@
       </c>
       <c r="D664" t="inlineStr">
         <is>
-          <t>16억9365만</t>
+          <t>2억0391만</t>
         </is>
       </c>
       <c r="E664" t="inlineStr">
         <is>
-          <t>2,100개</t>
+          <t>348개</t>
         </is>
       </c>
     </row>
@@ -18649,7 +18649,7 @@
       </c>
       <c r="D675" t="inlineStr">
         <is>
-          <t>3억5563만</t>
+          <t>3억5568만</t>
         </is>
       </c>
       <c r="E675" t="inlineStr">
@@ -19363,7 +19363,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>케이</t>
+          <t>bobaepapa - 보배아빠</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
@@ -19378,19 +19378,19 @@
       </c>
       <c r="D702" t="inlineStr">
         <is>
-          <t>5억0477만</t>
+          <t>3억4219만</t>
         </is>
       </c>
       <c r="E702" t="inlineStr">
         <is>
-          <t>3,126개</t>
+          <t>364개</t>
         </is>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>bobaepapa - 보배아빠</t>
+          <t>케이</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
@@ -19405,12 +19405,12 @@
       </c>
       <c r="D703" t="inlineStr">
         <is>
-          <t>3억4219만</t>
+          <t>5억0504만</t>
         </is>
       </c>
       <c r="E703" t="inlineStr">
         <is>
-          <t>364개</t>
+          <t>3,126개</t>
         </is>
       </c>
     </row>
@@ -19714,39 +19714,39 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>DKDKTV</t>
+          <t>BODA 보다</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>[음악/댄스/가수]</t>
+          <t>[미분류]</t>
         </is>
       </c>
       <c r="C715" t="inlineStr">
         <is>
-          <t>73만</t>
+          <t>74만</t>
         </is>
       </c>
       <c r="D715" t="inlineStr">
         <is>
-          <t>1억6113만</t>
+          <t>3억5767만</t>
         </is>
       </c>
       <c r="E715" t="inlineStr">
         <is>
-          <t>1,155개</t>
+          <t>827개</t>
         </is>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>Sechi</t>
+          <t>DKDKTV</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>[영화/만화/애니]</t>
+          <t>[음악/댄스/가수]</t>
         </is>
       </c>
       <c r="C716" t="inlineStr">
@@ -19756,24 +19756,24 @@
       </c>
       <c r="D716" t="inlineStr">
         <is>
-          <t>2억4481만</t>
+          <t>1억6113만</t>
         </is>
       </c>
       <c r="E716" t="inlineStr">
         <is>
-          <t>287개</t>
+          <t>1,155개</t>
         </is>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>시바견 곰이탱이여우</t>
+          <t>Sechi</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>[애완/반려동물]</t>
+          <t>[영화/만화/애니]</t>
         </is>
       </c>
       <c r="C717" t="inlineStr">
@@ -19783,24 +19783,24 @@
       </c>
       <c r="D717" t="inlineStr">
         <is>
-          <t>3억8430만</t>
+          <t>2억4481만</t>
         </is>
       </c>
       <c r="E717" t="inlineStr">
         <is>
-          <t>1,273개</t>
+          <t>287개</t>
         </is>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>BODA 보다</t>
+          <t>시바견 곰이탱이여우</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>[미분류]</t>
+          <t>[애완/반려동물]</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
@@ -19810,12 +19810,12 @@
       </c>
       <c r="D718" t="inlineStr">
         <is>
-          <t>3억5094만</t>
+          <t>3억8430만</t>
         </is>
       </c>
       <c r="E718" t="inlineStr">
         <is>
-          <t>821개</t>
+          <t>1,273개</t>
         </is>
       </c>
     </row>
@@ -19903,12 +19903,12 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>yeondukong 연두콩</t>
+          <t>걍밍경</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>[패션/미용]</t>
+          <t>[TV/방송]</t>
         </is>
       </c>
       <c r="C722" t="inlineStr">
@@ -19918,24 +19918,24 @@
       </c>
       <c r="D722" t="inlineStr">
         <is>
-          <t>9612만</t>
+          <t>4913만</t>
         </is>
       </c>
       <c r="E722" t="inlineStr">
         <is>
-          <t>377개</t>
+          <t>45개</t>
         </is>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>B1A4 OFFICIAL +</t>
+          <t>yeondukong 연두콩</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>[음악/댄스/가수]</t>
+          <t>[패션/미용]</t>
         </is>
       </c>
       <c r="C723" t="inlineStr">
@@ -19945,24 +19945,24 @@
       </c>
       <c r="D723" t="inlineStr">
         <is>
-          <t>1억8845만</t>
+          <t>9612만</t>
         </is>
       </c>
       <c r="E723" t="inlineStr">
         <is>
-          <t>331개</t>
+          <t>377개</t>
         </is>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>sunnydahye</t>
+          <t>B1A4 OFFICIAL +</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>[패션/미용]</t>
+          <t>[음악/댄스/가수]</t>
         </is>
       </c>
       <c r="C724" t="inlineStr">
@@ -19972,24 +19972,24 @@
       </c>
       <c r="D724" t="inlineStr">
         <is>
-          <t>5115만</t>
+          <t>1억8845만</t>
         </is>
       </c>
       <c r="E724" t="inlineStr">
         <is>
-          <t>334개</t>
+          <t>331개</t>
         </is>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>러너꽃빈TV</t>
+          <t>sunnydahye</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>[게임]</t>
+          <t>[패션/미용]</t>
         </is>
       </c>
       <c r="C725" t="inlineStr">
@@ -19999,24 +19999,24 @@
       </c>
       <c r="D725" t="inlineStr">
         <is>
-          <t>6억0301만</t>
+          <t>5115만</t>
         </is>
       </c>
       <c r="E725" t="inlineStr">
         <is>
-          <t>3,210개</t>
+          <t>334개</t>
         </is>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>상해기SangHyuk</t>
+          <t>러너꽃빈TV</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>[BJ/인물/연예인]</t>
+          <t>[게임]</t>
         </is>
       </c>
       <c r="C726" t="inlineStr">
@@ -20026,24 +20026,24 @@
       </c>
       <c r="D726" t="inlineStr">
         <is>
-          <t>1억6825만</t>
+          <t>6억0301만</t>
         </is>
       </c>
       <c r="E726" t="inlineStr">
         <is>
-          <t>361개</t>
+          <t>3,210개</t>
         </is>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>815머니톡</t>
+          <t>상해기SangHyuk</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>[미분류]</t>
+          <t>[BJ/인물/연예인]</t>
         </is>
       </c>
       <c r="C727" t="inlineStr">
@@ -20053,19 +20053,19 @@
       </c>
       <c r="D727" t="inlineStr">
         <is>
-          <t>1억9879만</t>
+          <t>1억6825만</t>
         </is>
       </c>
       <c r="E727" t="inlineStr">
         <is>
-          <t>3,208개</t>
+          <t>361개</t>
         </is>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>팩토리</t>
+          <t>815머니톡</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
@@ -20080,24 +20080,24 @@
       </c>
       <c r="D728" t="inlineStr">
         <is>
-          <t>7751만</t>
+          <t>1억9879만</t>
         </is>
       </c>
       <c r="E728" t="inlineStr">
         <is>
-          <t>29개</t>
+          <t>3,208개</t>
         </is>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>걍밍경</t>
+          <t>팩토리</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>[TV/방송]</t>
+          <t>[미분류]</t>
         </is>
       </c>
       <c r="C729" t="inlineStr">
@@ -20107,12 +20107,12 @@
       </c>
       <c r="D729" t="inlineStr">
         <is>
-          <t>4825만</t>
+          <t>7751만</t>
         </is>
       </c>
       <c r="E729" t="inlineStr">
         <is>
-          <t>44개</t>
+          <t>29개</t>
         </is>
       </c>
     </row>
@@ -20173,12 +20173,12 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>스토리</t>
+          <t>친절한 대학</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>[미분류]</t>
+          <t>[교육/강의]</t>
         </is>
       </c>
       <c r="C732" t="inlineStr">
@@ -20188,19 +20188,19 @@
       </c>
       <c r="D732" t="inlineStr">
         <is>
-          <t>1억0632만</t>
+          <t>6808만</t>
         </is>
       </c>
       <c r="E732" t="inlineStr">
         <is>
-          <t>45개</t>
+          <t>603개</t>
         </is>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>DAWN</t>
+          <t>스토리</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
@@ -20215,51 +20215,51 @@
       </c>
       <c r="D733" t="inlineStr">
         <is>
-          <t>5096만</t>
+          <t>1억0632만</t>
         </is>
       </c>
       <c r="E733" t="inlineStr">
         <is>
-          <t>34개</t>
+          <t>45개</t>
         </is>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>Ouvir 오비르</t>
+          <t>DAWN</t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>[취미/라이프]</t>
+          <t>[미분류]</t>
         </is>
       </c>
       <c r="C734" t="inlineStr">
         <is>
-          <t>71만</t>
+          <t>72만</t>
         </is>
       </c>
       <c r="D734" t="inlineStr">
         <is>
-          <t>1억2358만</t>
+          <t>5096만</t>
         </is>
       </c>
       <c r="E734" t="inlineStr">
         <is>
-          <t>160개</t>
+          <t>34개</t>
         </is>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>우파푸른하늘Woopa TV</t>
+          <t>Ouvir 오비르</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>[자동차]</t>
+          <t>[취미/라이프]</t>
         </is>
       </c>
       <c r="C735" t="inlineStr">
@@ -20269,24 +20269,24 @@
       </c>
       <c r="D735" t="inlineStr">
         <is>
-          <t>3억9760만</t>
+          <t>1억2358만</t>
         </is>
       </c>
       <c r="E735" t="inlineStr">
         <is>
-          <t>1,117개</t>
+          <t>160개</t>
         </is>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>친절한 대학</t>
+          <t>우파푸른하늘Woopa TV</t>
         </is>
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>[교육/강의]</t>
+          <t>[자동차]</t>
         </is>
       </c>
       <c r="C736" t="inlineStr">
@@ -20296,12 +20296,12 @@
       </c>
       <c r="D736" t="inlineStr">
         <is>
-          <t>6752만</t>
+          <t>3억9760만</t>
         </is>
       </c>
       <c r="E736" t="inlineStr">
         <is>
-          <t>600개</t>
+          <t>1,117개</t>
         </is>
       </c>
     </row>
@@ -20335,12 +20335,12 @@
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>대륙남TV [clark tv]</t>
+          <t>스브스뉴스 SUBUSU NEWS</t>
         </is>
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>[BJ/인물/연예인]</t>
+          <t>[뉴스/정치/사회]</t>
         </is>
       </c>
       <c r="C738" t="inlineStr">
@@ -20350,19 +20350,19 @@
       </c>
       <c r="D738" t="inlineStr">
         <is>
-          <t>4억0205만</t>
+          <t>7억8391만</t>
         </is>
       </c>
       <c r="E738" t="inlineStr">
         <is>
-          <t>3,140개</t>
+          <t>2,661개</t>
         </is>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>스브스뉴스 SUBUSU NEWS</t>
+          <t>채널A 뉴스TOP10</t>
         </is>
       </c>
       <c r="B739" t="inlineStr">
@@ -20377,24 +20377,24 @@
       </c>
       <c r="D739" t="inlineStr">
         <is>
-          <t>7억8391만</t>
+          <t>5억8874만</t>
         </is>
       </c>
       <c r="E739" t="inlineStr">
         <is>
-          <t>2,661개</t>
+          <t>16,984개</t>
         </is>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>채널A 뉴스TOP10</t>
+          <t>스페셜솔져 - 모바일FPS</t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>[뉴스/정치/사회]</t>
+          <t>[게임]</t>
         </is>
       </c>
       <c r="C740" t="inlineStr">
@@ -20404,24 +20404,24 @@
       </c>
       <c r="D740" t="inlineStr">
         <is>
-          <t>5억8874만</t>
+          <t>1504만</t>
         </is>
       </c>
       <c r="E740" t="inlineStr">
         <is>
-          <t>16,984개</t>
+          <t>137개</t>
         </is>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>스페셜솔져 - 모바일FPS</t>
+          <t>대륙남TV [clark tv]</t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>[게임]</t>
+          <t>[BJ/인물/연예인]</t>
         </is>
       </c>
       <c r="C741" t="inlineStr">
@@ -20431,12 +20431,12 @@
       </c>
       <c r="D741" t="inlineStr">
         <is>
-          <t>1504만</t>
+          <t>4억0218만</t>
         </is>
       </c>
       <c r="E741" t="inlineStr">
         <is>
-          <t>137개</t>
+          <t>3,145개</t>
         </is>
       </c>
     </row>
@@ -20539,12 +20539,12 @@
       </c>
       <c r="D745" t="inlineStr">
         <is>
-          <t>8821만</t>
+          <t>8875만</t>
         </is>
       </c>
       <c r="E745" t="inlineStr">
         <is>
-          <t>87개</t>
+          <t>88개</t>
         </is>
       </c>
     </row>
@@ -20659,12 +20659,12 @@
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>코코몽 COCOMONG TV - Cartoon &amp; Song For Kids</t>
+          <t>과나gwana</t>
         </is>
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>[키즈/어린이]</t>
+          <t>[미분류]</t>
         </is>
       </c>
       <c r="C750" t="inlineStr">
@@ -20674,24 +20674,24 @@
       </c>
       <c r="D750" t="inlineStr">
         <is>
-          <t>8억7348만</t>
+          <t>1억0692만</t>
         </is>
       </c>
       <c r="E750" t="inlineStr">
         <is>
-          <t>1,203개</t>
+          <t>87개</t>
         </is>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>김습습Double Soup</t>
+          <t>코코몽 COCOMONG TV - Cartoon &amp; Song For Kids</t>
         </is>
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>[패션/미용]</t>
+          <t>[키즈/어린이]</t>
         </is>
       </c>
       <c r="C751" t="inlineStr">
@@ -20701,24 +20701,24 @@
       </c>
       <c r="D751" t="inlineStr">
         <is>
-          <t>5666만</t>
+          <t>8억7348만</t>
         </is>
       </c>
       <c r="E751" t="inlineStr">
         <is>
-          <t>292개</t>
+          <t>1,203개</t>
         </is>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>SM STATION</t>
+          <t>김습습Double Soup</t>
         </is>
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>[미분류]</t>
+          <t>[패션/미용]</t>
         </is>
       </c>
       <c r="C752" t="inlineStr">
@@ -20728,19 +20728,19 @@
       </c>
       <c r="D752" t="inlineStr">
         <is>
-          <t>5414만</t>
+          <t>5666만</t>
         </is>
       </c>
       <c r="E752" t="inlineStr">
         <is>
-          <t>94개</t>
+          <t>292개</t>
         </is>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>과나gwana</t>
+          <t>SM STATION</t>
         </is>
       </c>
       <c r="B753" t="inlineStr">
@@ -20755,12 +20755,12 @@
       </c>
       <c r="D753" t="inlineStr">
         <is>
-          <t>1억0643만</t>
+          <t>5414만</t>
         </is>
       </c>
       <c r="E753" t="inlineStr">
         <is>
-          <t>87개</t>
+          <t>94개</t>
         </is>
       </c>
     </row>
@@ -20794,7 +20794,7 @@
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>임창정</t>
+          <t>Bigman</t>
         </is>
       </c>
       <c r="B755" t="inlineStr">
@@ -20809,19 +20809,19 @@
       </c>
       <c r="D755" t="inlineStr">
         <is>
-          <t>2억2394만</t>
+          <t>5592만</t>
         </is>
       </c>
       <c r="E755" t="inlineStr">
         <is>
-          <t>307개</t>
+          <t>46개</t>
         </is>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>Bigman</t>
+          <t>임창정</t>
         </is>
       </c>
       <c r="B756" t="inlineStr">
@@ -20836,12 +20836,12 @@
       </c>
       <c r="D756" t="inlineStr">
         <is>
-          <t>5581만</t>
+          <t>2억2394만</t>
         </is>
       </c>
       <c r="E756" t="inlineStr">
         <is>
-          <t>46개</t>
+          <t>307개</t>
         </is>
       </c>
     </row>
@@ -21025,12 +21025,12 @@
       </c>
       <c r="D763" t="inlineStr">
         <is>
-          <t>5억1818만</t>
+          <t>5억1829만</t>
         </is>
       </c>
       <c r="E763" t="inlineStr">
         <is>
-          <t>3,238개</t>
+          <t>3,240개</t>
         </is>
       </c>
     </row>
@@ -21052,12 +21052,12 @@
       </c>
       <c r="D764" t="inlineStr">
         <is>
-          <t>7665만</t>
+          <t>7676만</t>
         </is>
       </c>
       <c r="E764" t="inlineStr">
         <is>
-          <t>304개</t>
+          <t>306개</t>
         </is>
       </c>
     </row>
@@ -21457,12 +21457,12 @@
       </c>
       <c r="D779" t="inlineStr">
         <is>
-          <t>2억3428만</t>
+          <t>2억3467만</t>
         </is>
       </c>
       <c r="E779" t="inlineStr">
         <is>
-          <t>319개</t>
+          <t>321개</t>
         </is>
       </c>
     </row>
@@ -21901,12 +21901,12 @@
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>문호준</t>
+          <t>복지마블TV [Welfare Marble]</t>
         </is>
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>[게임]</t>
+          <t>[미분류]</t>
         </is>
       </c>
       <c r="C796" t="inlineStr">
@@ -21916,24 +21916,24 @@
       </c>
       <c r="D796" t="inlineStr">
         <is>
-          <t>4억3629만</t>
+          <t>7226만</t>
         </is>
       </c>
       <c r="E796" t="inlineStr">
         <is>
-          <t>1,109개</t>
+          <t>296개</t>
         </is>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>권회훈</t>
+          <t>문호준</t>
         </is>
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>[음식/요리/레시피]</t>
+          <t>[게임]</t>
         </is>
       </c>
       <c r="C797" t="inlineStr">
@@ -21943,24 +21943,24 @@
       </c>
       <c r="D797" t="inlineStr">
         <is>
-          <t>2억7190만</t>
+          <t>4억3629만</t>
         </is>
       </c>
       <c r="E797" t="inlineStr">
         <is>
-          <t>1,281개</t>
+          <t>1,109개</t>
         </is>
       </c>
     </row>
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>방가네</t>
+          <t>권회훈</t>
         </is>
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>[미분류]</t>
+          <t>[음식/요리/레시피]</t>
         </is>
       </c>
       <c r="C798" t="inlineStr">
@@ -21970,24 +21970,24 @@
       </c>
       <c r="D798" t="inlineStr">
         <is>
-          <t>1억6183만</t>
+          <t>2억7190만</t>
         </is>
       </c>
       <c r="E798" t="inlineStr">
         <is>
-          <t>200개</t>
+          <t>1,281개</t>
         </is>
       </c>
     </row>
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>CK Animation School_2016-2018</t>
+          <t>방가네</t>
         </is>
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>[영화/만화/애니]</t>
+          <t>[미분류]</t>
         </is>
       </c>
       <c r="C799" t="inlineStr">
@@ -21997,51 +21997,51 @@
       </c>
       <c r="D799" t="inlineStr">
         <is>
-          <t>2억1685만</t>
+          <t>1억6183만</t>
         </is>
       </c>
       <c r="E799" t="inlineStr">
         <is>
-          <t>698개</t>
+          <t>200개</t>
         </is>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>레바스튜디오</t>
+          <t>CK Animation School_2016-2018</t>
         </is>
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>[TV/방송]</t>
+          <t>[영화/만화/애니]</t>
         </is>
       </c>
       <c r="C800" t="inlineStr">
         <is>
-          <t>66만</t>
+          <t>67만</t>
         </is>
       </c>
       <c r="D800" t="inlineStr">
         <is>
-          <t>3억0428만</t>
+          <t>2억1685만</t>
         </is>
       </c>
       <c r="E800" t="inlineStr">
         <is>
-          <t>441개</t>
+          <t>698개</t>
         </is>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>복지마블TV [Welfare Marble]</t>
+          <t>레바스튜디오</t>
         </is>
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>[미분류]</t>
+          <t>[TV/방송]</t>
         </is>
       </c>
       <c r="C801" t="inlineStr">
@@ -22051,24 +22051,24 @@
       </c>
       <c r="D801" t="inlineStr">
         <is>
-          <t>7094만</t>
+          <t>3억0428만</t>
         </is>
       </c>
       <c r="E801" t="inlineStr">
         <is>
-          <t>293개</t>
+          <t>441개</t>
         </is>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>김도고 Doggo Kim</t>
+          <t>MTN 머니투데이방송</t>
         </is>
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>[BJ/인물/연예인]</t>
+          <t>[뉴스/정치/사회]</t>
         </is>
       </c>
       <c r="C802" t="inlineStr">
@@ -22078,24 +22078,24 @@
       </c>
       <c r="D802" t="inlineStr">
         <is>
-          <t>1억6863만</t>
+          <t>6억0763만</t>
         </is>
       </c>
       <c r="E802" t="inlineStr">
         <is>
-          <t>158개</t>
+          <t>58,833개</t>
         </is>
       </c>
     </row>
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>하알라</t>
+          <t>김도고 Doggo Kim</t>
         </is>
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>[미분류]</t>
+          <t>[BJ/인물/연예인]</t>
         </is>
       </c>
       <c r="C803" t="inlineStr">
@@ -22105,24 +22105,24 @@
       </c>
       <c r="D803" t="inlineStr">
         <is>
-          <t>1억6844만</t>
+          <t>1억6863만</t>
         </is>
       </c>
       <c r="E803" t="inlineStr">
         <is>
-          <t>208개</t>
+          <t>158개</t>
         </is>
       </c>
     </row>
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>GIRL'S DAY</t>
+          <t>하알라</t>
         </is>
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>[음악/댄스/가수]</t>
+          <t>[미분류]</t>
         </is>
       </c>
       <c r="C804" t="inlineStr">
@@ -22132,24 +22132,24 @@
       </c>
       <c r="D804" t="inlineStr">
         <is>
-          <t>2억5153만</t>
+          <t>1억6844만</t>
         </is>
       </c>
       <c r="E804" t="inlineStr">
         <is>
-          <t>150개</t>
+          <t>208개</t>
         </is>
       </c>
     </row>
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>새벽</t>
+          <t>GIRL'S DAY</t>
         </is>
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>[패션/미용]</t>
+          <t>[음악/댄스/가수]</t>
         </is>
       </c>
       <c r="C805" t="inlineStr">
@@ -22159,24 +22159,24 @@
       </c>
       <c r="D805" t="inlineStr">
         <is>
-          <t>9482만</t>
+          <t>2억5153만</t>
         </is>
       </c>
       <c r="E805" t="inlineStr">
         <is>
-          <t>505개</t>
+          <t>150개</t>
         </is>
       </c>
     </row>
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>JK 아트사커 온라인</t>
+          <t>새벽</t>
         </is>
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>[스포츠/운동]</t>
+          <t>[패션/미용]</t>
         </is>
       </c>
       <c r="C806" t="inlineStr">
@@ -22186,24 +22186,24 @@
       </c>
       <c r="D806" t="inlineStr">
         <is>
-          <t>2억5040만</t>
+          <t>9482만</t>
         </is>
       </c>
       <c r="E806" t="inlineStr">
         <is>
-          <t>448개</t>
+          <t>505개</t>
         </is>
       </c>
     </row>
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>홍시네마</t>
+          <t>JK 아트사커 온라인</t>
         </is>
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>[영화/만화/애니]</t>
+          <t>[스포츠/운동]</t>
         </is>
       </c>
       <c r="C807" t="inlineStr">
@@ -22213,24 +22213,24 @@
       </c>
       <c r="D807" t="inlineStr">
         <is>
-          <t>2억2111만</t>
+          <t>2억5040만</t>
         </is>
       </c>
       <c r="E807" t="inlineStr">
         <is>
-          <t>174개</t>
+          <t>448개</t>
         </is>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>Team_SeikaTV(팀세이카)</t>
+          <t>홍시네마</t>
         </is>
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>[음식/요리/레시피]</t>
+          <t>[영화/만화/애니]</t>
         </is>
       </c>
       <c r="C808" t="inlineStr">
@@ -22240,24 +22240,24 @@
       </c>
       <c r="D808" t="inlineStr">
         <is>
-          <t>1억3628만</t>
+          <t>2억2111만</t>
         </is>
       </c>
       <c r="E808" t="inlineStr">
         <is>
-          <t>115개</t>
+          <t>174개</t>
         </is>
       </c>
     </row>
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>MTN 머니투데이방송</t>
+          <t>Team_SeikaTV(팀세이카)</t>
         </is>
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>[뉴스/정치/사회]</t>
+          <t>[음식/요리/레시피]</t>
         </is>
       </c>
       <c r="C809" t="inlineStr">
@@ -22267,12 +22267,12 @@
       </c>
       <c r="D809" t="inlineStr">
         <is>
-          <t>5억9992만</t>
+          <t>1억3628만</t>
         </is>
       </c>
       <c r="E809" t="inlineStr">
         <is>
-          <t>58,656개</t>
+          <t>115개</t>
         </is>
       </c>
     </row>
@@ -22549,12 +22549,12 @@
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>Ha Neul오늘의 하늘</t>
+          <t>MBC 미스터리 : 심야괴담회 X 서프라이즈</t>
         </is>
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>[패션/미용]</t>
+          <t>[TV/방송]</t>
         </is>
       </c>
       <c r="C820" t="inlineStr">
@@ -22564,19 +22564,19 @@
       </c>
       <c r="D820" t="inlineStr">
         <is>
-          <t>1억0627만</t>
+          <t>2억8878만</t>
         </is>
       </c>
       <c r="E820" t="inlineStr">
         <is>
-          <t>306개</t>
+          <t>1,337개</t>
         </is>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>MBC 미스터리 : 심야괴담회 X 서프라이즈</t>
+          <t>PANGKICK 팡킥</t>
         </is>
       </c>
       <c r="B821" t="inlineStr">
@@ -22591,24 +22591,24 @@
       </c>
       <c r="D821" t="inlineStr">
         <is>
-          <t>2억8878만</t>
+          <t>2억1490만</t>
         </is>
       </c>
       <c r="E821" t="inlineStr">
         <is>
-          <t>1,337개</t>
+          <t>85개</t>
         </is>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>PANGKICK 팡킥</t>
+          <t>Ha Neul오늘의 하늘</t>
         </is>
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>[TV/방송]</t>
+          <t>[패션/미용]</t>
         </is>
       </c>
       <c r="C822" t="inlineStr">
@@ -22618,24 +22618,24 @@
       </c>
       <c r="D822" t="inlineStr">
         <is>
-          <t>2억1490만</t>
+          <t>1억0641만</t>
         </is>
       </c>
       <c r="E822" t="inlineStr">
         <is>
-          <t>85개</t>
+          <t>307개</t>
         </is>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>LCK</t>
+          <t>유 퀴즈 온 더 튜브</t>
         </is>
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>[게임]</t>
+          <t>[미분류]</t>
         </is>
       </c>
       <c r="C823" t="inlineStr">
@@ -22645,24 +22645,24 @@
       </c>
       <c r="D823" t="inlineStr">
         <is>
-          <t>5억5229만</t>
+          <t>2억8947만</t>
         </is>
       </c>
       <c r="E823" t="inlineStr">
         <is>
-          <t>4,310개</t>
+          <t>2,922개</t>
         </is>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>Q2HAN</t>
+          <t>LCK</t>
         </is>
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>[패션/미용]</t>
+          <t>[게임]</t>
         </is>
       </c>
       <c r="C824" t="inlineStr">
@@ -22672,19 +22672,19 @@
       </c>
       <c r="D824" t="inlineStr">
         <is>
-          <t>7402만</t>
+          <t>5억5229만</t>
         </is>
       </c>
       <c r="E824" t="inlineStr">
         <is>
-          <t>721개</t>
+          <t>4,310개</t>
         </is>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>로즈하ROSEHA</t>
+          <t>Q2HAN</t>
         </is>
       </c>
       <c r="B825" t="inlineStr">
@@ -22699,24 +22699,24 @@
       </c>
       <c r="D825" t="inlineStr">
         <is>
-          <t>7352만</t>
+          <t>7402만</t>
         </is>
       </c>
       <c r="E825" t="inlineStr">
         <is>
-          <t>184개</t>
+          <t>721개</t>
         </is>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>KBS동물티비 : 애니멀포유 animal4u</t>
+          <t>로즈하ROSEHA</t>
         </is>
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>[TV/방송]</t>
+          <t>[패션/미용]</t>
         </is>
       </c>
       <c r="C826" t="inlineStr">
@@ -22726,24 +22726,24 @@
       </c>
       <c r="D826" t="inlineStr">
         <is>
-          <t>4억4144만</t>
+          <t>7352만</t>
         </is>
       </c>
       <c r="E826" t="inlineStr">
         <is>
-          <t>1,860개</t>
+          <t>184개</t>
         </is>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>팩트TV NEWS</t>
+          <t>KBS동물티비 : 애니멀포유 animal4u</t>
         </is>
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>[뉴스/정치/사회]</t>
+          <t>[TV/방송]</t>
         </is>
       </c>
       <c r="C827" t="inlineStr">
@@ -22753,24 +22753,24 @@
       </c>
       <c r="D827" t="inlineStr">
         <is>
-          <t>6억2651만</t>
+          <t>4억4144만</t>
         </is>
       </c>
       <c r="E827" t="inlineStr">
         <is>
-          <t>21,223개</t>
+          <t>1,860개</t>
         </is>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>tweety 트위티</t>
+          <t>팩트TV NEWS</t>
         </is>
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>[TV/방송]</t>
+          <t>[뉴스/정치/사회]</t>
         </is>
       </c>
       <c r="C828" t="inlineStr">
@@ -22780,24 +22780,24 @@
       </c>
       <c r="D828" t="inlineStr">
         <is>
-          <t>8296만</t>
+          <t>6억2651만</t>
         </is>
       </c>
       <c r="E828" t="inlineStr">
         <is>
-          <t>178개</t>
+          <t>21,223개</t>
         </is>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>깨박이</t>
+          <t>tweety 트위티</t>
         </is>
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>[BJ/인물/연예인]</t>
+          <t>[TV/방송]</t>
         </is>
       </c>
       <c r="C829" t="inlineStr">
@@ -22807,24 +22807,24 @@
       </c>
       <c r="D829" t="inlineStr">
         <is>
-          <t>3억8347만</t>
+          <t>8296만</t>
         </is>
       </c>
       <c r="E829" t="inlineStr">
         <is>
-          <t>1,261개</t>
+          <t>178개</t>
         </is>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>Spinel CAM</t>
+          <t>깨박이</t>
         </is>
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>[TV/방송]</t>
+          <t>[BJ/인물/연예인]</t>
         </is>
       </c>
       <c r="C830" t="inlineStr">
@@ -22834,24 +22834,24 @@
       </c>
       <c r="D830" t="inlineStr">
         <is>
-          <t>6억9909만</t>
+          <t>3억8347만</t>
         </is>
       </c>
       <c r="E830" t="inlineStr">
         <is>
-          <t>8,667개</t>
+          <t>1,261개</t>
         </is>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>송슐랭 가이드 - SONGCHELIN GUIDE</t>
+          <t>Spinel CAM</t>
         </is>
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>[미분류]</t>
+          <t>[TV/방송]</t>
         </is>
       </c>
       <c r="C831" t="inlineStr">
@@ -22861,19 +22861,19 @@
       </c>
       <c r="D831" t="inlineStr">
         <is>
-          <t>2021만</t>
+          <t>6억9909만</t>
         </is>
       </c>
       <c r="E831" t="inlineStr">
         <is>
-          <t>136개</t>
+          <t>8,667개</t>
         </is>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>과학드림 [Science Dream]</t>
+          <t>송슐랭 가이드 - SONGCHELIN GUIDE</t>
         </is>
       </c>
       <c r="B832" t="inlineStr">
@@ -22888,19 +22888,19 @@
       </c>
       <c r="D832" t="inlineStr">
         <is>
-          <t>1억1286만</t>
+          <t>2021만</t>
         </is>
       </c>
       <c r="E832" t="inlineStr">
         <is>
-          <t>113개</t>
+          <t>136개</t>
         </is>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>지기TV</t>
+          <t>과학드림 [Science Dream]</t>
         </is>
       </c>
       <c r="B833" t="inlineStr">
@@ -22915,19 +22915,19 @@
       </c>
       <c r="D833" t="inlineStr">
         <is>
-          <t>1억6829만</t>
+          <t>1억1286만</t>
         </is>
       </c>
       <c r="E833" t="inlineStr">
         <is>
-          <t>760개</t>
+          <t>113개</t>
         </is>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>유 퀴즈 온 더 튜브</t>
+          <t>지기TV</t>
         </is>
       </c>
       <c r="B834" t="inlineStr">
@@ -22942,12 +22942,12 @@
       </c>
       <c r="D834" t="inlineStr">
         <is>
-          <t>2억8610만</t>
+          <t>1억6829만</t>
         </is>
       </c>
       <c r="E834" t="inlineStr">
         <is>
-          <t>2,901개</t>
+          <t>760개</t>
         </is>
       </c>
     </row>
@@ -23143,12 +23143,12 @@
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>정동원TV</t>
+          <t>김대석 셰프TV</t>
         </is>
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>[음악/댄스/가수]</t>
+          <t>[미분류]</t>
         </is>
       </c>
       <c r="C842" t="inlineStr">
@@ -23158,24 +23158,24 @@
       </c>
       <c r="D842" t="inlineStr">
         <is>
-          <t>2억1966만</t>
+          <t>7379만</t>
         </is>
       </c>
       <c r="E842" t="inlineStr">
         <is>
-          <t>275개</t>
+          <t>300개</t>
         </is>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>会社員J</t>
+          <t>정동원TV</t>
         </is>
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>[패션/미용]</t>
+          <t>[음악/댄스/가수]</t>
         </is>
       </c>
       <c r="C843" t="inlineStr">
@@ -23185,24 +23185,24 @@
       </c>
       <c r="D843" t="inlineStr">
         <is>
-          <t>1억3202만</t>
+          <t>2억1966만</t>
         </is>
       </c>
       <c r="E843" t="inlineStr">
         <is>
-          <t>423개</t>
+          <t>275개</t>
         </is>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>매미킴 TV</t>
+          <t>会社員J</t>
         </is>
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>[TV/방송]</t>
+          <t>[패션/미용]</t>
         </is>
       </c>
       <c r="C844" t="inlineStr">
@@ -23212,24 +23212,24 @@
       </c>
       <c r="D844" t="inlineStr">
         <is>
-          <t>1억7021만</t>
+          <t>1억3202만</t>
         </is>
       </c>
       <c r="E844" t="inlineStr">
         <is>
-          <t>275개</t>
+          <t>423개</t>
         </is>
       </c>
     </row>
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>김나영의 nofilterTV</t>
+          <t>매미킴 TV</t>
         </is>
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>[취미/라이프]</t>
+          <t>[TV/방송]</t>
         </is>
       </c>
       <c r="C845" t="inlineStr">
@@ -23239,24 +23239,24 @@
       </c>
       <c r="D845" t="inlineStr">
         <is>
-          <t>1억2721만</t>
+          <t>1억7021만</t>
         </is>
       </c>
       <c r="E845" t="inlineStr">
         <is>
-          <t>336개</t>
+          <t>275개</t>
         </is>
       </c>
     </row>
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>퀸톨 TV</t>
+          <t>김나영의 nofilterTV</t>
         </is>
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>[게임]</t>
+          <t>[취미/라이프]</t>
         </is>
       </c>
       <c r="C846" t="inlineStr">
@@ -23266,51 +23266,51 @@
       </c>
       <c r="D846" t="inlineStr">
         <is>
-          <t>4억7819만</t>
+          <t>1억2721만</t>
         </is>
       </c>
       <c r="E846" t="inlineStr">
         <is>
-          <t>2,182개</t>
+          <t>336개</t>
         </is>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>[에일리 OFFICIAL] aileemusic</t>
+          <t>퀸톨 TV</t>
         </is>
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>[미분류]</t>
+          <t>[게임]</t>
         </is>
       </c>
       <c r="C847" t="inlineStr">
         <is>
-          <t>63만</t>
+          <t>64만</t>
         </is>
       </c>
       <c r="D847" t="inlineStr">
         <is>
-          <t>1억0146만</t>
+          <t>4억7884만</t>
         </is>
       </c>
       <c r="E847" t="inlineStr">
         <is>
-          <t>147개</t>
+          <t>2,188개</t>
         </is>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>도영도영이</t>
+          <t>[에일리 OFFICIAL] aileemusic</t>
         </is>
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>[패션/미용]</t>
+          <t>[미분류]</t>
         </is>
       </c>
       <c r="C848" t="inlineStr">
@@ -23320,24 +23320,24 @@
       </c>
       <c r="D848" t="inlineStr">
         <is>
-          <t>4550만</t>
+          <t>1억0146만</t>
         </is>
       </c>
       <c r="E848" t="inlineStr">
         <is>
-          <t>165개</t>
+          <t>147개</t>
         </is>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>강하나 스트레칭_stretching</t>
+          <t>도영도영이</t>
         </is>
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>[스포츠/운동]</t>
+          <t>[패션/미용]</t>
         </is>
       </c>
       <c r="C849" t="inlineStr">
@@ -23347,24 +23347,24 @@
       </c>
       <c r="D849" t="inlineStr">
         <is>
-          <t>5977만</t>
+          <t>4550만</t>
         </is>
       </c>
       <c r="E849" t="inlineStr">
         <is>
-          <t>334개</t>
+          <t>165개</t>
         </is>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>LeoJ Makeup</t>
+          <t>강하나 스트레칭_stretching</t>
         </is>
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>[패션/미용]</t>
+          <t>[스포츠/운동]</t>
         </is>
       </c>
       <c r="C850" t="inlineStr">
@@ -23374,19 +23374,19 @@
       </c>
       <c r="D850" t="inlineStr">
         <is>
-          <t>9941만</t>
+          <t>5977만</t>
         </is>
       </c>
       <c r="E850" t="inlineStr">
         <is>
-          <t>260개</t>
+          <t>334개</t>
         </is>
       </c>
     </row>
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>소윤Soyoon</t>
+          <t>LeoJ Makeup</t>
         </is>
       </c>
       <c r="B851" t="inlineStr">
@@ -23401,24 +23401,24 @@
       </c>
       <c r="D851" t="inlineStr">
         <is>
-          <t>6328만</t>
+          <t>9941만</t>
         </is>
       </c>
       <c r="E851" t="inlineStr">
         <is>
-          <t>167개</t>
+          <t>260개</t>
         </is>
       </c>
     </row>
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>희철리즘Heechulism</t>
+          <t>소윤Soyoon</t>
         </is>
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>[취미/라이프]</t>
+          <t>[패션/미용]</t>
         </is>
       </c>
       <c r="C852" t="inlineStr">
@@ -23428,24 +23428,24 @@
       </c>
       <c r="D852" t="inlineStr">
         <is>
-          <t>1억5559만</t>
+          <t>6328만</t>
         </is>
       </c>
       <c r="E852" t="inlineStr">
         <is>
-          <t>264개</t>
+          <t>167개</t>
         </is>
       </c>
     </row>
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>단하나 DANHANA</t>
+          <t>희철리즘Heechulism</t>
         </is>
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>[미분류]</t>
+          <t>[취미/라이프]</t>
         </is>
       </c>
       <c r="C853" t="inlineStr">
@@ -23455,24 +23455,24 @@
       </c>
       <c r="D853" t="inlineStr">
         <is>
-          <t>9888만</t>
+          <t>1억5559만</t>
         </is>
       </c>
       <c r="E853" t="inlineStr">
         <is>
-          <t>68개</t>
+          <t>264개</t>
         </is>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>손오공</t>
+          <t>단하나 DANHANA</t>
         </is>
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>[키즈/어린이]</t>
+          <t>[미분류]</t>
         </is>
       </c>
       <c r="C854" t="inlineStr">
@@ -23482,24 +23482,24 @@
       </c>
       <c r="D854" t="inlineStr">
         <is>
-          <t>6억5452만</t>
+          <t>9888만</t>
         </is>
       </c>
       <c r="E854" t="inlineStr">
         <is>
-          <t>749개</t>
+          <t>68개</t>
         </is>
       </c>
     </row>
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>이연LEEYEON</t>
+          <t>손오공</t>
         </is>
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>[취미/라이프]</t>
+          <t>[키즈/어린이]</t>
         </is>
       </c>
       <c r="C855" t="inlineStr">
@@ -23509,24 +23509,24 @@
       </c>
       <c r="D855" t="inlineStr">
         <is>
-          <t>4483만</t>
+          <t>6억5452만</t>
         </is>
       </c>
       <c r="E855" t="inlineStr">
         <is>
-          <t>184개</t>
+          <t>749개</t>
         </is>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>다이아나Diana</t>
+          <t>이연LEEYEON</t>
         </is>
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>[음악/댄스/가수]</t>
+          <t>[취미/라이프]</t>
         </is>
       </c>
       <c r="C856" t="inlineStr">
@@ -23536,19 +23536,19 @@
       </c>
       <c r="D856" t="inlineStr">
         <is>
-          <t>1억7604만</t>
+          <t>4483만</t>
         </is>
       </c>
       <c r="E856" t="inlineStr">
         <is>
-          <t>1,803개</t>
+          <t>184개</t>
         </is>
       </c>
     </row>
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>lEtudel</t>
+          <t>다이아나Diana</t>
         </is>
       </c>
       <c r="B857" t="inlineStr">
@@ -23563,24 +23563,24 @@
       </c>
       <c r="D857" t="inlineStr">
         <is>
-          <t>2억4139만</t>
+          <t>1억7604만</t>
         </is>
       </c>
       <c r="E857" t="inlineStr">
         <is>
-          <t>2,310개</t>
+          <t>1,803개</t>
         </is>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>sini시니</t>
+          <t>lEtudel</t>
         </is>
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>[음식/요리/레시피]</t>
+          <t>[음악/댄스/가수]</t>
         </is>
       </c>
       <c r="C858" t="inlineStr">
@@ -23590,24 +23590,24 @@
       </c>
       <c r="D858" t="inlineStr">
         <is>
-          <t>2억4442만</t>
+          <t>2억4139만</t>
         </is>
       </c>
       <c r="E858" t="inlineStr">
         <is>
-          <t>711개</t>
+          <t>2,310개</t>
         </is>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>달리 [SBS 교양 공식채널]</t>
+          <t>sini시니</t>
         </is>
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>[미분류]</t>
+          <t>[음식/요리/레시피]</t>
         </is>
       </c>
       <c r="C859" t="inlineStr">
@@ -23617,24 +23617,24 @@
       </c>
       <c r="D859" t="inlineStr">
         <is>
-          <t>1억8147만</t>
+          <t>2억4442만</t>
         </is>
       </c>
       <c r="E859" t="inlineStr">
         <is>
-          <t>417개</t>
+          <t>711개</t>
         </is>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>OCN</t>
+          <t>달리 [SBS 교양 공식채널]</t>
         </is>
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>[TV/방송]</t>
+          <t>[미분류]</t>
         </is>
       </c>
       <c r="C860" t="inlineStr">
@@ -23644,24 +23644,24 @@
       </c>
       <c r="D860" t="inlineStr">
         <is>
-          <t>5억9634만</t>
+          <t>1억8147만</t>
         </is>
       </c>
       <c r="E860" t="inlineStr">
         <is>
-          <t>12,219개</t>
+          <t>417개</t>
         </is>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>김대석 셰프TV</t>
+          <t>OCN</t>
         </is>
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>[미분류]</t>
+          <t>[TV/방송]</t>
         </is>
       </c>
       <c r="C861" t="inlineStr">
@@ -23671,12 +23671,12 @@
       </c>
       <c r="D861" t="inlineStr">
         <is>
-          <t>7196만</t>
+          <t>5억9634만</t>
         </is>
       </c>
       <c r="E861" t="inlineStr">
         <is>
-          <t>295개</t>
+          <t>12,219개</t>
         </is>
       </c>
     </row>
@@ -23737,12 +23737,12 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>여정을떠난여정</t>
+          <t>동심파괴</t>
         </is>
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>[취미/라이프]</t>
+          <t>[교육/강의]</t>
         </is>
       </c>
       <c r="C864" t="inlineStr">
@@ -23752,12 +23752,12 @@
       </c>
       <c r="D864" t="inlineStr">
         <is>
-          <t>1억4178만</t>
+          <t>1억9914만</t>
         </is>
       </c>
       <c r="E864" t="inlineStr">
         <is>
-          <t>293개</t>
+          <t>459개</t>
         </is>
       </c>
     </row>
@@ -23791,7 +23791,7 @@
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>딩가의 회전목마 DINGA</t>
+          <t>여정을떠난여정</t>
         </is>
       </c>
       <c r="B866" t="inlineStr">
@@ -23806,24 +23806,24 @@
       </c>
       <c r="D866" t="inlineStr">
         <is>
-          <t>7375만</t>
+          <t>1억4195만</t>
         </is>
       </c>
       <c r="E866" t="inlineStr">
         <is>
-          <t>172개</t>
+          <t>293개</t>
         </is>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>조여사전성시대</t>
+          <t>딩가의 회전목마 DINGA</t>
         </is>
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>[미분류]</t>
+          <t>[취미/라이프]</t>
         </is>
       </c>
       <c r="C867" t="inlineStr">
@@ -23833,24 +23833,24 @@
       </c>
       <c r="D867" t="inlineStr">
         <is>
-          <t>1억2735만</t>
+          <t>7375만</t>
         </is>
       </c>
       <c r="E867" t="inlineStr">
         <is>
-          <t>487개</t>
+          <t>172개</t>
         </is>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>Rio y Christian</t>
+          <t>조여사전성시대</t>
         </is>
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>[TV/방송]</t>
+          <t>[미분류]</t>
         </is>
       </c>
       <c r="C868" t="inlineStr">
@@ -23860,24 +23860,24 @@
       </c>
       <c r="D868" t="inlineStr">
         <is>
-          <t>5479만</t>
+          <t>1억2735만</t>
         </is>
       </c>
       <c r="E868" t="inlineStr">
         <is>
-          <t>296개</t>
+          <t>487개</t>
         </is>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>꼰대희</t>
+          <t>Rio y Christian</t>
         </is>
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>[미분류]</t>
+          <t>[TV/방송]</t>
         </is>
       </c>
       <c r="C869" t="inlineStr">
@@ -23887,24 +23887,24 @@
       </c>
       <c r="D869" t="inlineStr">
         <is>
-          <t>1억0675만</t>
+          <t>5479만</t>
         </is>
       </c>
       <c r="E869" t="inlineStr">
         <is>
-          <t>139개</t>
+          <t>296개</t>
         </is>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>삼식</t>
+          <t>여락이들_</t>
         </is>
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>[게임]</t>
+          <t>[취미]</t>
         </is>
       </c>
       <c r="C870" t="inlineStr">
@@ -23914,19 +23914,19 @@
       </c>
       <c r="D870" t="inlineStr">
         <is>
-          <t>2억2394만</t>
+          <t>1억4871만</t>
         </is>
       </c>
       <c r="E870" t="inlineStr">
         <is>
-          <t>1,917개</t>
+          <t>348개</t>
         </is>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>캡틴 파추호 Captain PaChuHO</t>
+          <t>꼰대희</t>
         </is>
       </c>
       <c r="B871" t="inlineStr">
@@ -23941,24 +23941,24 @@
       </c>
       <c r="D871" t="inlineStr">
         <is>
-          <t>3815만</t>
+          <t>1억0675만</t>
         </is>
       </c>
       <c r="E871" t="inlineStr">
         <is>
-          <t>54개</t>
+          <t>139개</t>
         </is>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>단희TV</t>
+          <t>삼식</t>
         </is>
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>[주식/경제/부동산]</t>
+          <t>[게임]</t>
         </is>
       </c>
       <c r="C872" t="inlineStr">
@@ -23968,24 +23968,24 @@
       </c>
       <c r="D872" t="inlineStr">
         <is>
-          <t>7152만</t>
+          <t>2억2394만</t>
         </is>
       </c>
       <c r="E872" t="inlineStr">
         <is>
-          <t>948개</t>
+          <t>1,917개</t>
         </is>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>맛상무</t>
+          <t>캡틴 파추호 Captain PaChuHO</t>
         </is>
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>[음식/요리/레시피]</t>
+          <t>[미분류]</t>
         </is>
       </c>
       <c r="C873" t="inlineStr">
@@ -23995,24 +23995,24 @@
       </c>
       <c r="D873" t="inlineStr">
         <is>
-          <t>2억3778만</t>
+          <t>3815만</t>
         </is>
       </c>
       <c r="E873" t="inlineStr">
         <is>
-          <t>1,298개</t>
+          <t>54개</t>
         </is>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>동심파괴</t>
+          <t>단희TV</t>
         </is>
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>[교육/강의]</t>
+          <t>[주식/경제/부동산]</t>
         </is>
       </c>
       <c r="C874" t="inlineStr">
@@ -24022,24 +24022,24 @@
       </c>
       <c r="D874" t="inlineStr">
         <is>
-          <t>1억9559만</t>
+          <t>7152만</t>
         </is>
       </c>
       <c r="E874" t="inlineStr">
         <is>
-          <t>458개</t>
+          <t>948개</t>
         </is>
       </c>
     </row>
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>코아 TV</t>
+          <t>맛상무</t>
         </is>
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>[게임]</t>
+          <t>[음식/요리/레시피]</t>
         </is>
       </c>
       <c r="C875" t="inlineStr">
@@ -24049,24 +24049,24 @@
       </c>
       <c r="D875" t="inlineStr">
         <is>
-          <t>4억6679만</t>
+          <t>2억3778만</t>
         </is>
       </c>
       <c r="E875" t="inlineStr">
         <is>
-          <t>1,132개</t>
+          <t>1,298개</t>
         </is>
       </c>
     </row>
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>예씨 yessii</t>
+          <t>코아 TV</t>
         </is>
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>[BJ/인물/연예인]</t>
+          <t>[게임]</t>
         </is>
       </c>
       <c r="C876" t="inlineStr">
@@ -24076,51 +24076,51 @@
       </c>
       <c r="D876" t="inlineStr">
         <is>
-          <t>4억0091만</t>
+          <t>4억6679만</t>
         </is>
       </c>
       <c r="E876" t="inlineStr">
         <is>
-          <t>838개</t>
+          <t>1,132개</t>
         </is>
       </c>
     </row>
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>지니어드벤쳐 GeniAdventure (공룡∙과학 Dinosaurs)</t>
+          <t>예씨 yessii</t>
         </is>
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>[키즈/어린이]</t>
+          <t>[BJ/인물/연예인]</t>
         </is>
       </c>
       <c r="C877" t="inlineStr">
         <is>
-          <t>61만</t>
+          <t>62만</t>
         </is>
       </c>
       <c r="D877" t="inlineStr">
         <is>
-          <t>6억0088만</t>
+          <t>4억0091만</t>
         </is>
       </c>
       <c r="E877" t="inlineStr">
         <is>
-          <t>422개</t>
+          <t>838개</t>
         </is>
       </c>
     </row>
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>저라뎃 JUSTLIKETHAT</t>
+          <t>KBS Entertain: 깔깔티비</t>
         </is>
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>[게임]</t>
+          <t>[TV/방송]</t>
         </is>
       </c>
       <c r="C878" t="inlineStr">
@@ -24130,24 +24130,24 @@
       </c>
       <c r="D878" t="inlineStr">
         <is>
-          <t>6억0427만</t>
+          <t>9억0168만</t>
         </is>
       </c>
       <c r="E878" t="inlineStr">
         <is>
-          <t>3,049개</t>
+          <t>5,326개</t>
         </is>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>여락이들_</t>
+          <t>지니어드벤쳐 GeniAdventure (공룡∙과학 Dinosaurs)</t>
         </is>
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>[취미]</t>
+          <t>[키즈/어린이]</t>
         </is>
       </c>
       <c r="C879" t="inlineStr">
@@ -24157,24 +24157,24 @@
       </c>
       <c r="D879" t="inlineStr">
         <is>
-          <t>1억4742만</t>
+          <t>6억0088만</t>
         </is>
       </c>
       <c r="E879" t="inlineStr">
         <is>
-          <t>349개</t>
+          <t>422개</t>
         </is>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>깨방정</t>
+          <t>저라뎃 JUSTLIKETHAT</t>
         </is>
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>[미분류]</t>
+          <t>[게임]</t>
         </is>
       </c>
       <c r="C880" t="inlineStr">
@@ -24184,24 +24184,24 @@
       </c>
       <c r="D880" t="inlineStr">
         <is>
-          <t>1억9487만</t>
+          <t>6억0427만</t>
         </is>
       </c>
       <c r="E880" t="inlineStr">
         <is>
-          <t>414개</t>
+          <t>3,049개</t>
         </is>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>KBS 1라디오</t>
+          <t>깨방정</t>
         </is>
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>[TV/방송]</t>
+          <t>[미분류]</t>
         </is>
       </c>
       <c r="C881" t="inlineStr">
@@ -24211,19 +24211,19 @@
       </c>
       <c r="D881" t="inlineStr">
         <is>
-          <t>2억3659만</t>
+          <t>1억9487만</t>
         </is>
       </c>
       <c r="E881" t="inlineStr">
         <is>
-          <t>12,413개</t>
+          <t>414개</t>
         </is>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>tvN insight</t>
+          <t>KBS 1라디오</t>
         </is>
       </c>
       <c r="B882" t="inlineStr">
@@ -24238,19 +24238,19 @@
       </c>
       <c r="D882" t="inlineStr">
         <is>
-          <t>2억1556만</t>
+          <t>2억3659만</t>
         </is>
       </c>
       <c r="E882" t="inlineStr">
         <is>
-          <t>1,836개</t>
+          <t>12,413개</t>
         </is>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>KBS Entertain: 깔깔티비</t>
+          <t>tvN insight</t>
         </is>
       </c>
       <c r="B883" t="inlineStr">
@@ -24265,12 +24265,12 @@
       </c>
       <c r="D883" t="inlineStr">
         <is>
-          <t>8억9640만</t>
+          <t>2억1556만</t>
         </is>
       </c>
       <c r="E883" t="inlineStr">
         <is>
-          <t>5,302개</t>
+          <t>1,836개</t>
         </is>
       </c>
     </row>
@@ -24439,12 +24439,12 @@
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>골근위수영뷰티아카데미</t>
+          <t>땅콩 Peanut</t>
         </is>
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>[패션/미용]</t>
+          <t>[미분류]</t>
         </is>
       </c>
       <c r="C890" t="inlineStr">
@@ -24454,24 +24454,24 @@
       </c>
       <c r="D890" t="inlineStr">
         <is>
-          <t>4억3221만</t>
+          <t>2억5080만</t>
         </is>
       </c>
       <c r="E890" t="inlineStr">
         <is>
-          <t>406개</t>
+          <t>18개</t>
         </is>
       </c>
     </row>
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>바다곰 조해웅Seabear</t>
+          <t>골근위수영뷰티아카데미</t>
         </is>
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>[음식/요리/레시피]</t>
+          <t>[패션/미용]</t>
         </is>
       </c>
       <c r="C891" t="inlineStr">
@@ -24481,24 +24481,24 @@
       </c>
       <c r="D891" t="inlineStr">
         <is>
-          <t>1억3396만</t>
+          <t>4억3221만</t>
         </is>
       </c>
       <c r="E891" t="inlineStr">
         <is>
-          <t>419개</t>
+          <t>406개</t>
         </is>
       </c>
     </row>
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>JUNE</t>
+          <t>바다곰 조해웅Seabear</t>
         </is>
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>[게임]</t>
+          <t>[음식/요리/레시피]</t>
         </is>
       </c>
       <c r="C892" t="inlineStr">
@@ -24508,51 +24508,51 @@
       </c>
       <c r="D892" t="inlineStr">
         <is>
-          <t>6억6380만</t>
+          <t>1억3429만</t>
         </is>
       </c>
       <c r="E892" t="inlineStr">
         <is>
-          <t>1,369개</t>
+          <t>421개</t>
         </is>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>로하Roha</t>
+          <t>JUNE</t>
         </is>
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>[미분류]</t>
+          <t>[게임]</t>
         </is>
       </c>
       <c r="C893" t="inlineStr">
         <is>
-          <t>60만</t>
+          <t>61만</t>
         </is>
       </c>
       <c r="D893" t="inlineStr">
         <is>
-          <t>8583만</t>
+          <t>6억6380만</t>
         </is>
       </c>
       <c r="E893" t="inlineStr">
         <is>
-          <t>122개</t>
+          <t>1,369개</t>
         </is>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>FTISLAND (FT아일랜드)</t>
+          <t>로하Roha</t>
         </is>
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>[음악/댄스/가수]</t>
+          <t>[미분류]</t>
         </is>
       </c>
       <c r="C894" t="inlineStr">
@@ -24562,24 +24562,24 @@
       </c>
       <c r="D894" t="inlineStr">
         <is>
-          <t>1억4785만</t>
+          <t>8583만</t>
         </is>
       </c>
       <c r="E894" t="inlineStr">
         <is>
-          <t>146개</t>
+          <t>122개</t>
         </is>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>Conversational Korean</t>
+          <t>FTISLAND (FT아일랜드)</t>
         </is>
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>[교육/강의]</t>
+          <t>[음악/댄스/가수]</t>
         </is>
       </c>
       <c r="C895" t="inlineStr">
@@ -24589,24 +24589,24 @@
       </c>
       <c r="D895" t="inlineStr">
         <is>
-          <t>1981만</t>
+          <t>1억4785만</t>
         </is>
       </c>
       <c r="E895" t="inlineStr">
         <is>
-          <t>349개</t>
+          <t>146개</t>
         </is>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>BRUSH</t>
+          <t>Conversational Korean</t>
         </is>
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>[미분류]</t>
+          <t>[교육/강의]</t>
         </is>
       </c>
       <c r="C896" t="inlineStr">
@@ -24616,24 +24616,24 @@
       </c>
       <c r="D896" t="inlineStr">
         <is>
-          <t>2억5820만</t>
+          <t>1981만</t>
         </is>
       </c>
       <c r="E896" t="inlineStr">
         <is>
-          <t>341개</t>
+          <t>349개</t>
         </is>
       </c>
     </row>
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>영자씨의 부엌Young-Ja's Kitchen</t>
+          <t>BRUSH</t>
         </is>
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>[음식/요리/레시피]</t>
+          <t>[미분류]</t>
         </is>
       </c>
       <c r="C897" t="inlineStr">
@@ -24643,24 +24643,24 @@
       </c>
       <c r="D897" t="inlineStr">
         <is>
-          <t>1억3574만</t>
+          <t>2억5820만</t>
         </is>
       </c>
       <c r="E897" t="inlineStr">
         <is>
-          <t>1,005개</t>
+          <t>341개</t>
         </is>
       </c>
     </row>
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>Ace Art 에이스 아트</t>
+          <t>영자씨의 부엌Young-Ja's Kitchen</t>
         </is>
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>[키즈/어린이]</t>
+          <t>[음식/요리/레시피]</t>
         </is>
       </c>
       <c r="C898" t="inlineStr">
@@ -24670,24 +24670,24 @@
       </c>
       <c r="D898" t="inlineStr">
         <is>
-          <t>3억0626만</t>
+          <t>1억3574만</t>
         </is>
       </c>
       <c r="E898" t="inlineStr">
         <is>
-          <t>750개</t>
+          <t>1,005개</t>
         </is>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>고누리</t>
+          <t>Ace Art 에이스 아트</t>
         </is>
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>[미분류]</t>
+          <t>[키즈/어린이]</t>
         </is>
       </c>
       <c r="C899" t="inlineStr">
@@ -24697,24 +24697,24 @@
       </c>
       <c r="D899" t="inlineStr">
         <is>
-          <t>2억4745만</t>
+          <t>3억0626만</t>
         </is>
       </c>
       <c r="E899" t="inlineStr">
         <is>
-          <t>589개</t>
+          <t>750개</t>
         </is>
       </c>
     </row>
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>노래하는코트</t>
+          <t>고누리</t>
         </is>
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>[음악/댄스/가수]</t>
+          <t>[미분류]</t>
         </is>
       </c>
       <c r="C900" t="inlineStr">
@@ -24724,24 +24724,24 @@
       </c>
       <c r="D900" t="inlineStr">
         <is>
-          <t>3억1952만</t>
+          <t>2억4745만</t>
         </is>
       </c>
       <c r="E900" t="inlineStr">
         <is>
-          <t>2,297개</t>
+          <t>589개</t>
         </is>
       </c>
     </row>
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>씨그널V [ Signal V ]</t>
+          <t>노래하는코트</t>
         </is>
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>[TV/방송]</t>
+          <t>[음악/댄스/가수]</t>
         </is>
       </c>
       <c r="C901" t="inlineStr">
@@ -24751,24 +24751,24 @@
       </c>
       <c r="D901" t="inlineStr">
         <is>
-          <t>2억1520만</t>
+          <t>3억1952만</t>
         </is>
       </c>
       <c r="E901" t="inlineStr">
         <is>
-          <t>625개</t>
+          <t>2,297개</t>
         </is>
       </c>
     </row>
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>땅콩 Peanut</t>
+          <t>씨그널V [ Signal V ]</t>
         </is>
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>[미분류]</t>
+          <t>[TV/방송]</t>
         </is>
       </c>
       <c r="C902" t="inlineStr">
@@ -24778,24 +24778,24 @@
       </c>
       <c r="D902" t="inlineStr">
         <is>
-          <t>2억4698만</t>
+          <t>2억1520만</t>
         </is>
       </c>
       <c r="E902" t="inlineStr">
         <is>
-          <t>18개</t>
+          <t>625개</t>
         </is>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>쏘대장</t>
+          <t>코니tv conitv</t>
         </is>
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t>[미분류]</t>
+          <t>[TV/방송]</t>
         </is>
       </c>
       <c r="C903" t="inlineStr">
@@ -24805,19 +24805,19 @@
       </c>
       <c r="D903" t="inlineStr">
         <is>
-          <t>1억2714만</t>
+          <t>1억0314만</t>
         </is>
       </c>
       <c r="E903" t="inlineStr">
         <is>
-          <t>337개</t>
+          <t>501개</t>
         </is>
       </c>
     </row>
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>코니tv conitv</t>
+          <t>티키틱 TIKITIK</t>
         </is>
       </c>
       <c r="B904" t="inlineStr">
@@ -24832,24 +24832,24 @@
       </c>
       <c r="D904" t="inlineStr">
         <is>
-          <t>1억0314만</t>
+          <t>1억3231만</t>
         </is>
       </c>
       <c r="E904" t="inlineStr">
         <is>
-          <t>501개</t>
+          <t>153개</t>
         </is>
       </c>
     </row>
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>티키틱 TIKITIK</t>
+          <t>쏘대장</t>
         </is>
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>[TV/방송]</t>
+          <t>[미분류]</t>
         </is>
       </c>
       <c r="C905" t="inlineStr">
@@ -24859,12 +24859,12 @@
       </c>
       <c r="D905" t="inlineStr">
         <is>
-          <t>1억3231만</t>
+          <t>1억2759만</t>
         </is>
       </c>
       <c r="E905" t="inlineStr">
         <is>
-          <t>153개</t>
+          <t>341개</t>
         </is>
       </c>
     </row>
@@ -24967,12 +24967,12 @@
       </c>
       <c r="D909" t="inlineStr">
         <is>
-          <t>6억3679만</t>
+          <t>6억3690만</t>
         </is>
       </c>
       <c r="E909" t="inlineStr">
         <is>
-          <t>7,524개</t>
+          <t>7,525개</t>
         </is>
       </c>
     </row>
@@ -25276,7 +25276,7 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>ConCorea TV</t>
+          <t>공구왕황부장</t>
         </is>
       </c>
       <c r="B921" t="inlineStr">
@@ -25291,24 +25291,24 @@
       </c>
       <c r="D921" t="inlineStr">
         <is>
-          <t>1478만</t>
+          <t>1억2578만</t>
         </is>
       </c>
       <c r="E921" t="inlineStr">
         <is>
-          <t>630개</t>
+          <t>480개</t>
         </is>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>김메주와 고양이들</t>
+          <t>ConCorea TV</t>
         </is>
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>[애완/반려동물]</t>
+          <t>[취미/라이프]</t>
         </is>
       </c>
       <c r="C922" t="inlineStr">
@@ -25318,24 +25318,24 @@
       </c>
       <c r="D922" t="inlineStr">
         <is>
-          <t>2억0314만</t>
+          <t>1478만</t>
         </is>
       </c>
       <c r="E922" t="inlineStr">
         <is>
-          <t>1,017개</t>
+          <t>630개</t>
         </is>
       </c>
     </row>
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>고성국TV</t>
+          <t>김메주와 고양이들</t>
         </is>
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>[뉴스/정치/사회]</t>
+          <t>[애완/반려동물]</t>
         </is>
       </c>
       <c r="C923" t="inlineStr">
@@ -25345,39 +25345,39 @@
       </c>
       <c r="D923" t="inlineStr">
         <is>
-          <t>4913만</t>
+          <t>2억0377만</t>
         </is>
       </c>
       <c r="E923" t="inlineStr">
         <is>
-          <t>725개</t>
+          <t>1,020개</t>
         </is>
       </c>
     </row>
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>검은고양이 다홍 Blackcat Dahong</t>
+          <t>고성국TV</t>
         </is>
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>[미분류]</t>
+          <t>[뉴스/정치/사회]</t>
         </is>
       </c>
       <c r="C924" t="inlineStr">
         <is>
-          <t>58만</t>
+          <t>59만</t>
         </is>
       </c>
       <c r="D924" t="inlineStr">
         <is>
-          <t>3693만</t>
+          <t>4913만</t>
         </is>
       </c>
       <c r="E924" t="inlineStr">
         <is>
-          <t>44개</t>
+          <t>725개</t>
         </is>
       </c>
     </row>
@@ -25438,12 +25438,12 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>STATV</t>
+          <t>여수MBC Music+(Kpop&amp;Trot)</t>
         </is>
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>[TV/방송]</t>
+          <t>[뉴스/정치/사회]</t>
         </is>
       </c>
       <c r="C927" t="inlineStr">
@@ -25453,24 +25453,24 @@
       </c>
       <c r="D927" t="inlineStr">
         <is>
-          <t>1억9766만</t>
+          <t>3억6928만</t>
         </is>
       </c>
       <c r="E927" t="inlineStr">
         <is>
-          <t>7,637개</t>
+          <t>12,845개</t>
         </is>
       </c>
     </row>
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>공구왕황부장</t>
+          <t>STATV</t>
         </is>
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>[취미/라이프]</t>
+          <t>[TV/방송]</t>
         </is>
       </c>
       <c r="C928" t="inlineStr">
@@ -25480,24 +25480,24 @@
       </c>
       <c r="D928" t="inlineStr">
         <is>
-          <t>1억2481만</t>
+          <t>1억9766만</t>
         </is>
       </c>
       <c r="E928" t="inlineStr">
         <is>
-          <t>478개</t>
+          <t>7,637개</t>
         </is>
       </c>
     </row>
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>풍자테레비</t>
+          <t>검은고양이 다홍 Blackcat Dahong</t>
         </is>
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>[BJ/인물/연예인]</t>
+          <t>[미분류]</t>
         </is>
       </c>
       <c r="C929" t="inlineStr">
@@ -25507,24 +25507,24 @@
       </c>
       <c r="D929" t="inlineStr">
         <is>
-          <t>2억7434만</t>
+          <t>3694만</t>
         </is>
       </c>
       <c r="E929" t="inlineStr">
         <is>
-          <t>1,814개</t>
+          <t>44개</t>
         </is>
       </c>
     </row>
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>굉장한 실험실</t>
+          <t>풍자테레비</t>
         </is>
       </c>
       <c r="B930" t="inlineStr">
         <is>
-          <t>[교육/강의]</t>
+          <t>[BJ/인물/연예인]</t>
         </is>
       </c>
       <c r="C930" t="inlineStr">
@@ -25534,24 +25534,24 @@
       </c>
       <c r="D930" t="inlineStr">
         <is>
-          <t>2억9386만</t>
+          <t>2억7434만</t>
         </is>
       </c>
       <c r="E930" t="inlineStr">
         <is>
-          <t>202개</t>
+          <t>1,814개</t>
         </is>
       </c>
     </row>
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>여수MBC Music+(Kpop&amp;Trot)</t>
+          <t>굉장한 실험실</t>
         </is>
       </c>
       <c r="B931" t="inlineStr">
         <is>
-          <t>[뉴스/정치/사회]</t>
+          <t>[교육/강의]</t>
         </is>
       </c>
       <c r="C931" t="inlineStr">
@@ -25561,24 +25561,24 @@
       </c>
       <c r="D931" t="inlineStr">
         <is>
-          <t>3억6715만</t>
+          <t>2억9386만</t>
         </is>
       </c>
       <c r="E931" t="inlineStr">
         <is>
-          <t>12,798개</t>
+          <t>202개</t>
         </is>
       </c>
     </row>
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>국방TV</t>
+          <t>청정구역</t>
         </is>
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t>[뉴스/정치/사회]</t>
+          <t>[미분류]</t>
         </is>
       </c>
       <c r="C932" t="inlineStr">
@@ -25588,24 +25588,24 @@
       </c>
       <c r="D932" t="inlineStr">
         <is>
-          <t>5억4029만</t>
+          <t>2억0317만</t>
         </is>
       </c>
       <c r="E932" t="inlineStr">
         <is>
-          <t>11,455개</t>
+          <t>501개</t>
         </is>
       </c>
     </row>
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>정육왕 MeatCreator</t>
+          <t>국방TV</t>
         </is>
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>[음식/요리/레시피]</t>
+          <t>[뉴스/정치/사회]</t>
         </is>
       </c>
       <c r="C933" t="inlineStr">
@@ -25615,24 +25615,24 @@
       </c>
       <c r="D933" t="inlineStr">
         <is>
-          <t>1억3879만</t>
+          <t>5억4029만</t>
         </is>
       </c>
       <c r="E933" t="inlineStr">
         <is>
-          <t>453개</t>
+          <t>11,455개</t>
         </is>
       </c>
     </row>
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>Troom Troom Kr</t>
+          <t>정육왕 MeatCreator</t>
         </is>
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>[키즈/어린이]</t>
+          <t>[음식/요리/레시피]</t>
         </is>
       </c>
       <c r="C934" t="inlineStr">
@@ -25642,24 +25642,24 @@
       </c>
       <c r="D934" t="inlineStr">
         <is>
-          <t>3억9763만</t>
+          <t>1억3879만</t>
         </is>
       </c>
       <c r="E934" t="inlineStr">
         <is>
-          <t>2,001개</t>
+          <t>453개</t>
         </is>
       </c>
     </row>
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>[Flower pig]꽃돼지</t>
+          <t>Troom Troom Kr</t>
         </is>
       </c>
       <c r="B935" t="inlineStr">
         <is>
-          <t>[음식/요리/레시피]</t>
+          <t>[키즈/어린이]</t>
         </is>
       </c>
       <c r="C935" t="inlineStr">
@@ -25669,24 +25669,24 @@
       </c>
       <c r="D935" t="inlineStr">
         <is>
-          <t>2억0331만</t>
+          <t>3억9763만</t>
         </is>
       </c>
       <c r="E935" t="inlineStr">
         <is>
-          <t>1,269개</t>
+          <t>2,001개</t>
         </is>
       </c>
     </row>
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>청정구역</t>
+          <t>[Flower pig]꽃돼지</t>
         </is>
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>[미분류]</t>
+          <t>[음식/요리/레시피]</t>
         </is>
       </c>
       <c r="C936" t="inlineStr">
@@ -25696,12 +25696,12 @@
       </c>
       <c r="D936" t="inlineStr">
         <is>
-          <t>2억0009만</t>
+          <t>2억0331만</t>
         </is>
       </c>
       <c r="E936" t="inlineStr">
         <is>
-          <t>494개</t>
+          <t>1,269개</t>
         </is>
       </c>
     </row>
@@ -25978,12 +25978,12 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>공돌이 용달</t>
+          <t>INFINITE</t>
         </is>
       </c>
       <c r="B947" t="inlineStr">
         <is>
-          <t>[TV/방송]</t>
+          <t>[음악/댄스/가수]</t>
         </is>
       </c>
       <c r="C947" t="inlineStr">
@@ -25993,24 +25993,24 @@
       </c>
       <c r="D947" t="inlineStr">
         <is>
-          <t>1억7467만</t>
+          <t>4574만</t>
         </is>
       </c>
       <c r="E947" t="inlineStr">
         <is>
-          <t>215개</t>
+          <t>196개</t>
         </is>
       </c>
     </row>
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>온스테이지ONSTAGE</t>
+          <t>공돌이 용달</t>
         </is>
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>[음악/댄스/가수]</t>
+          <t>[TV/방송]</t>
         </is>
       </c>
       <c r="C948" t="inlineStr">
@@ -26020,24 +26020,24 @@
       </c>
       <c r="D948" t="inlineStr">
         <is>
-          <t>2억4519만</t>
+          <t>1억7467만</t>
         </is>
       </c>
       <c r="E948" t="inlineStr">
         <is>
-          <t>2,378개</t>
+          <t>215개</t>
         </is>
       </c>
     </row>
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>덕자전성시대</t>
+          <t>온스테이지ONSTAGE</t>
         </is>
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>[BJ/인물/연예인]</t>
+          <t>[음악/댄스/가수]</t>
         </is>
       </c>
       <c r="C949" t="inlineStr">
@@ -26047,24 +26047,24 @@
       </c>
       <c r="D949" t="inlineStr">
         <is>
-          <t>7126만</t>
+          <t>2억4519만</t>
         </is>
       </c>
       <c r="E949" t="inlineStr">
         <is>
-          <t>178개</t>
+          <t>2,378개</t>
         </is>
       </c>
     </row>
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>김흥미</t>
+          <t>덕자전성시대</t>
         </is>
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>[미분류]</t>
+          <t>[BJ/인물/연예인]</t>
         </is>
       </c>
       <c r="C950" t="inlineStr">
@@ -26074,24 +26074,24 @@
       </c>
       <c r="D950" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7126만</t>
         </is>
       </c>
       <c r="E950" t="inlineStr">
         <is>
-          <t>0개</t>
+          <t>178개</t>
         </is>
       </c>
     </row>
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>God DongMin갓동민</t>
+          <t>김흥미</t>
         </is>
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>[음악/댄스/가수]</t>
+          <t>[미분류]</t>
         </is>
       </c>
       <c r="C951" t="inlineStr">
@@ -26101,19 +26101,19 @@
       </c>
       <c r="D951" t="inlineStr">
         <is>
-          <t>9512만</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E951" t="inlineStr">
         <is>
-          <t>999개</t>
+          <t>0개</t>
         </is>
       </c>
     </row>
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>INFINITE</t>
+          <t>God DongMin갓동민</t>
         </is>
       </c>
       <c r="B952" t="inlineStr">
@@ -26128,12 +26128,12 @@
       </c>
       <c r="D952" t="inlineStr">
         <is>
-          <t>4533만</t>
+          <t>9512만</t>
         </is>
       </c>
       <c r="E952" t="inlineStr">
         <is>
-          <t>193개</t>
+          <t>999개</t>
         </is>
       </c>
     </row>
@@ -26599,12 +26599,12 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>쿡피아 Cookpia</t>
+          <t>창배먹방 chang_bae</t>
         </is>
       </c>
       <c r="B970" t="inlineStr">
         <is>
-          <t>[미분류]</t>
+          <t>[음식/요리/레시피]</t>
         </is>
       </c>
       <c r="C970" t="inlineStr">
@@ -26614,24 +26614,24 @@
       </c>
       <c r="D970" t="inlineStr">
         <is>
-          <t>7727만</t>
+          <t>2억5942만</t>
         </is>
       </c>
       <c r="E970" t="inlineStr">
         <is>
-          <t>158개</t>
+          <t>1,345개</t>
         </is>
       </c>
     </row>
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>목포MBC 가요센터</t>
+          <t>쿡피아 Cookpia</t>
         </is>
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>[TV/방송]</t>
+          <t>[미분류]</t>
         </is>
       </c>
       <c r="C971" t="inlineStr">
@@ -26641,19 +26641,19 @@
       </c>
       <c r="D971" t="inlineStr">
         <is>
-          <t>2억0995만</t>
+          <t>7727만</t>
         </is>
       </c>
       <c r="E971" t="inlineStr">
         <is>
-          <t>4,198개</t>
+          <t>158개</t>
         </is>
       </c>
     </row>
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>은하캠핑</t>
+          <t>목포MBC 가요센터</t>
         </is>
       </c>
       <c r="B972" t="inlineStr">
@@ -26668,19 +26668,19 @@
       </c>
       <c r="D972" t="inlineStr">
         <is>
-          <t>1억1130만</t>
+          <t>2억0995만</t>
         </is>
       </c>
       <c r="E972" t="inlineStr">
         <is>
-          <t>215개</t>
+          <t>4,198개</t>
         </is>
       </c>
     </row>
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>Ripple_S</t>
+          <t>은하캠핑</t>
         </is>
       </c>
       <c r="B973" t="inlineStr">
@@ -26695,24 +26695,24 @@
       </c>
       <c r="D973" t="inlineStr">
         <is>
-          <t>3억2747만</t>
+          <t>1억1130만</t>
         </is>
       </c>
       <c r="E973" t="inlineStr">
         <is>
-          <t>790개</t>
+          <t>215개</t>
         </is>
       </c>
     </row>
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>엣지님</t>
+          <t>Ripple_S</t>
         </is>
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>[BJ/인물/연예인]</t>
+          <t>[TV/방송]</t>
         </is>
       </c>
       <c r="C974" t="inlineStr">
@@ -26722,24 +26722,24 @@
       </c>
       <c r="D974" t="inlineStr">
         <is>
-          <t>2억0011만</t>
+          <t>3억2747만</t>
         </is>
       </c>
       <c r="E974" t="inlineStr">
         <is>
-          <t>1,650개</t>
+          <t>790개</t>
         </is>
       </c>
     </row>
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>SINCOOK - 신쿡</t>
+          <t>엣지님</t>
         </is>
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>[음식/요리/레시피]</t>
+          <t>[BJ/인물/연예인]</t>
         </is>
       </c>
       <c r="C975" t="inlineStr">
@@ -26749,24 +26749,24 @@
       </c>
       <c r="D975" t="inlineStr">
         <is>
-          <t>1억0452만</t>
+          <t>2억0011만</t>
         </is>
       </c>
       <c r="E975" t="inlineStr">
         <is>
-          <t>498개</t>
+          <t>1,650개</t>
         </is>
       </c>
     </row>
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>또모TOWMOO</t>
+          <t>SINCOOK - 신쿡</t>
         </is>
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>[미분류]</t>
+          <t>[음식/요리/레시피]</t>
         </is>
       </c>
       <c r="C976" t="inlineStr">
@@ -26776,19 +26776,19 @@
       </c>
       <c r="D976" t="inlineStr">
         <is>
-          <t>1억5774만</t>
+          <t>1억0452만</t>
         </is>
       </c>
       <c r="E976" t="inlineStr">
         <is>
-          <t>209개</t>
+          <t>498개</t>
         </is>
       </c>
     </row>
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>Super K-슈퍼개미김정환</t>
+          <t>또모TOWMOO</t>
         </is>
       </c>
       <c r="B977" t="inlineStr">
@@ -26803,24 +26803,24 @@
       </c>
       <c r="D977" t="inlineStr">
         <is>
-          <t>5754만</t>
+          <t>1억5774만</t>
         </is>
       </c>
       <c r="E977" t="inlineStr">
         <is>
-          <t>538개</t>
+          <t>209개</t>
         </is>
       </c>
     </row>
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>창배먹방 chang_bae</t>
+          <t>Super K-슈퍼개미김정환</t>
         </is>
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>[음식/요리/레시피]</t>
+          <t>[미분류]</t>
         </is>
       </c>
       <c r="C978" t="inlineStr">
@@ -26830,12 +26830,12 @@
       </c>
       <c r="D978" t="inlineStr">
         <is>
-          <t>2억5831만</t>
+          <t>5754만</t>
         </is>
       </c>
       <c r="E978" t="inlineStr">
         <is>
-          <t>1,341개</t>
+          <t>538개</t>
         </is>
       </c>
     </row>
@@ -26950,12 +26950,12 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>Flow Music</t>
+          <t>Arirang News</t>
         </is>
       </c>
       <c r="B983" t="inlineStr">
         <is>
-          <t>[음악/댄스/가수]</t>
+          <t>[뉴스/정치/사회]</t>
         </is>
       </c>
       <c r="C983" t="inlineStr">
@@ -26965,24 +26965,24 @@
       </c>
       <c r="D983" t="inlineStr">
         <is>
-          <t>1억2531만</t>
+          <t>2억5018만</t>
         </is>
       </c>
       <c r="E983" t="inlineStr">
         <is>
-          <t>512개</t>
+          <t>127,687개</t>
         </is>
       </c>
     </row>
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>디렉터 짱구대디</t>
+          <t>Flow Music</t>
         </is>
       </c>
       <c r="B984" t="inlineStr">
         <is>
-          <t>[패션/미용]</t>
+          <t>[음악/댄스/가수]</t>
         </is>
       </c>
       <c r="C984" t="inlineStr">
@@ -26992,24 +26992,24 @@
       </c>
       <c r="D984" t="inlineStr">
         <is>
-          <t>1억8437만</t>
+          <t>1억2531만</t>
         </is>
       </c>
       <c r="E984" t="inlineStr">
         <is>
-          <t>1,832개</t>
+          <t>512개</t>
         </is>
       </c>
     </row>
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>밉지않은 관종언니</t>
+          <t>디렉터 짱구대디</t>
         </is>
       </c>
       <c r="B985" t="inlineStr">
         <is>
-          <t>[미분류]</t>
+          <t>[패션/미용]</t>
         </is>
       </c>
       <c r="C985" t="inlineStr">
@@ -27019,24 +27019,24 @@
       </c>
       <c r="D985" t="inlineStr">
         <is>
-          <t>8331만</t>
+          <t>1억8437만</t>
         </is>
       </c>
       <c r="E985" t="inlineStr">
         <is>
-          <t>187개</t>
+          <t>1,832개</t>
         </is>
       </c>
     </row>
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>샬이 Shal.E</t>
+          <t>밉지않은 관종언니</t>
         </is>
       </c>
       <c r="B986" t="inlineStr">
         <is>
-          <t>[취미/라이프]</t>
+          <t>[미분류]</t>
         </is>
       </c>
       <c r="C986" t="inlineStr">
@@ -27046,24 +27046,24 @@
       </c>
       <c r="D986" t="inlineStr">
         <is>
-          <t>2249만</t>
+          <t>8331만</t>
         </is>
       </c>
       <c r="E986" t="inlineStr">
         <is>
-          <t>63개</t>
+          <t>187개</t>
         </is>
       </c>
     </row>
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>Arirang News</t>
+          <t>샬이 Shal.E</t>
         </is>
       </c>
       <c r="B987" t="inlineStr">
         <is>
-          <t>[뉴스/정치/사회]</t>
+          <t>[취미/라이프]</t>
         </is>
       </c>
       <c r="C987" t="inlineStr">
@@ -27073,12 +27073,12 @@
       </c>
       <c r="D987" t="inlineStr">
         <is>
-          <t>2억4960만</t>
+          <t>2249만</t>
         </is>
       </c>
       <c r="E987" t="inlineStr">
         <is>
-          <t>127,463개</t>
+          <t>63개</t>
         </is>
       </c>
     </row>
@@ -27328,12 +27328,12 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>요리용디 Yori Yongd</t>
+          <t>앵쩡TV</t>
         </is>
       </c>
       <c r="B997" t="inlineStr">
         <is>
-          <t>[미분류]</t>
+          <t>[음식/요리/레시피]</t>
         </is>
       </c>
       <c r="C997" t="inlineStr">
@@ -27343,24 +27343,24 @@
       </c>
       <c r="D997" t="inlineStr">
         <is>
-          <t>2억2620만</t>
+          <t>9734만</t>
         </is>
       </c>
       <c r="E997" t="inlineStr">
         <is>
-          <t>165개</t>
+          <t>296개</t>
         </is>
       </c>
     </row>
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>건나물TV</t>
+          <t>[ALTUBE] 김성현TV</t>
         </is>
       </c>
       <c r="B998" t="inlineStr">
         <is>
-          <t>[미분류]</t>
+          <t>[게임]</t>
         </is>
       </c>
       <c r="C998" t="inlineStr">
@@ -27370,24 +27370,24 @@
       </c>
       <c r="D998" t="inlineStr">
         <is>
-          <t>1억7004만</t>
+          <t>4억2560만</t>
         </is>
       </c>
       <c r="E998" t="inlineStr">
         <is>
-          <t>378개</t>
+          <t>2,121개</t>
         </is>
       </c>
     </row>
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>[ALTUBE] 김성현TV</t>
+          <t>요리용디 Yori Yongd</t>
         </is>
       </c>
       <c r="B999" t="inlineStr">
         <is>
-          <t>[게임]</t>
+          <t>[미분류]</t>
         </is>
       </c>
       <c r="C999" t="inlineStr">
@@ -27397,24 +27397,24 @@
       </c>
       <c r="D999" t="inlineStr">
         <is>
-          <t>4억2388만</t>
+          <t>2억2620만</t>
         </is>
       </c>
       <c r="E999" t="inlineStr">
         <is>
-          <t>2,121개</t>
+          <t>165개</t>
         </is>
       </c>
     </row>
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>방앗간 비둘기</t>
+          <t>건나물TV</t>
         </is>
       </c>
       <c r="B1000" t="inlineStr">
         <is>
-          <t>[게임]</t>
+          <t>[미분류]</t>
         </is>
       </c>
       <c r="C1000" t="inlineStr">
@@ -27424,19 +27424,19 @@
       </c>
       <c r="D1000" t="inlineStr">
         <is>
-          <t>3억5851만</t>
+          <t>1억7004만</t>
         </is>
       </c>
       <c r="E1000" t="inlineStr">
         <is>
-          <t>4,391개</t>
+          <t>378개</t>
         </is>
       </c>
     </row>
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>빅헤드</t>
+          <t>방앗간 비둘기</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr">
@@ -27451,12 +27451,12 @@
       </c>
       <c r="D1001" t="inlineStr">
         <is>
-          <t>3억2836만</t>
+          <t>3억5851만</t>
         </is>
       </c>
       <c r="E1001" t="inlineStr">
         <is>
-          <t>3,544개</t>
+          <t>4,391개</t>
         </is>
       </c>
     </row>
